--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
@@ -1742,13 +1742,13 @@
         <v>500.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3688015190057441</v>
+        <v>0.4086006878391549</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3088012369468393</v>
+        <v>0.34217679408105306</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8991099003069138</v>
+        <v>0.9026630444951961</v>
       </c>
       <c r="K50" t="n">
         <v>0.9354838709677419</v>
@@ -1780,13 +1780,13 @@
         <v>1000.0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3934748547615994</v>
+        <v>0.42478932594154983</v>
       </c>
       <c r="I51" t="n">
-        <v>0.32992561772031687</v>
+        <v>0.35678403685564836</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9008434951316838</v>
+        <v>0.8999059961599749</v>
       </c>
       <c r="K51" t="n">
         <v>0.9354838709677419</v>
@@ -1818,13 +1818,13 @@
         <v>500.0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.39564632419095475</v>
+        <v>0.43682859460428064</v>
       </c>
       <c r="I52" t="n">
-        <v>0.33046012255612</v>
+        <v>0.36378738663618543</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8990710797176774</v>
+        <v>0.8952064405016559</v>
       </c>
       <c r="K52" t="n">
         <v>0.9354838709677419</v>
@@ -1856,13 +1856,13 @@
         <v>1000.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4196431945008847</v>
+        <v>0.4537831694828071</v>
       </c>
       <c r="I53" t="n">
-        <v>0.35077194073655593</v>
+        <v>0.3782860233914424</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8914310479555755</v>
+        <v>0.8926809465816431</v>
       </c>
       <c r="K53" t="n">
         <v>0.9354838709677419</v>
@@ -1894,13 +1894,13 @@
         <v>500.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5107752014634747</v>
+        <v>0.5541866209808476</v>
       </c>
       <c r="I54" t="n">
-        <v>0.41991285293341446</v>
+        <v>0.4502211915161501</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8471595244022502</v>
+        <v>0.8352736357447288</v>
       </c>
       <c r="K54" t="n">
         <v>0.9337094499294781</v>
@@ -1932,13 +1932,13 @@
         <v>1000.0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5290549652522634</v>
+        <v>0.562516687837226</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4337642253068327</v>
+        <v>0.4562431240128435</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8376433186422474</v>
+        <v>0.8319120334687239</v>
       </c>
       <c r="K55" t="n">
         <v>0.9337094499294781</v>
@@ -1970,13 +1970,13 @@
         <v>500.0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5026427580558642</v>
+        <v>0.49887360090467914</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4004372857736403</v>
+        <v>0.39541112751738994</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5172653487259897</v>
+        <v>0.5074624793371493</v>
       </c>
       <c r="K56" t="n">
         <v>0.6558030480656506</v>
@@ -2008,13 +2008,13 @@
         <v>1000.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4934980269384723</v>
+        <v>0.5031653120983163</v>
       </c>
       <c r="I57" t="n">
-        <v>0.39413407940165485</v>
+        <v>0.3993816652483101</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5097620456205133</v>
+        <v>0.512831619452451</v>
       </c>
       <c r="K57" t="n">
         <v>0.6558030480656506</v>
@@ -2046,13 +2046,13 @@
         <v>500.0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.36761704537344425</v>
+        <v>0.4071259173507844</v>
       </c>
       <c r="I58" t="n">
-        <v>0.30747323730474</v>
+        <v>0.34078525125546044</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9008049031139517</v>
+        <v>0.9055773915656239</v>
       </c>
       <c r="K58" t="n">
         <v>0.9354838709677419</v>
@@ -2084,13 +2084,13 @@
         <v>1000.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3921433886809748</v>
+        <v>0.42308122228941786</v>
       </c>
       <c r="I59" t="n">
-        <v>0.32852713786475274</v>
+        <v>0.35525608996198155</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9030174684911414</v>
+        <v>0.8988275380379085</v>
       </c>
       <c r="K59" t="n">
         <v>0.9354838709677419</v>
@@ -2122,13 +2122,13 @@
         <v>500.0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.39434829135704846</v>
+        <v>0.43573440526703755</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3290560952812239</v>
+        <v>0.36264831349372695</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8989344917181992</v>
+        <v>0.8967442845543789</v>
       </c>
       <c r="K60" t="n">
         <v>0.9354838709677419</v>
@@ -2160,13 +2160,13 @@
         <v>1000.0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4190507045070701</v>
+        <v>0.4521300098069299</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3499342714992702</v>
+        <v>0.3768364635031542</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8937038446117652</v>
+        <v>0.8925921770215672</v>
       </c>
       <c r="K61" t="n">
         <v>0.9354838709677419</v>
@@ -2198,13 +2198,13 @@
         <v>500.0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5096785228639534</v>
+        <v>0.5533803787810452</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4196722632242337</v>
+        <v>0.4499129685147676</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8476178583198044</v>
+        <v>0.8381930990784455</v>
       </c>
       <c r="K62" t="n">
         <v>0.9322990126939351</v>
@@ -2236,13 +2236,13 @@
         <v>1000.0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5279688899922796</v>
+        <v>0.5615334856019816</v>
       </c>
       <c r="I63" t="n">
-        <v>0.43380888039415544</v>
+        <v>0.4561180578032851</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8394833158765221</v>
+        <v>0.8333583210516565</v>
       </c>
       <c r="K63" t="n">
         <v>0.9322990126939351</v>
@@ -2274,13 +2274,13 @@
         <v>500.0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5130220356902139</v>
+        <v>0.5087250939694902</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4113916982630225</v>
+        <v>0.40603964146255034</v>
       </c>
       <c r="J64" t="n">
-        <v>0.533560016117547</v>
+        <v>0.5227113433015914</v>
       </c>
       <c r="K64" t="n">
         <v>0.6316529894490035</v>
@@ -2312,13 +2312,13 @@
         <v>1000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5051669517993613</v>
+        <v>0.5143802674577339</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4068688960414777</v>
+        <v>0.4114199827126134</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5271781980117468</v>
+        <v>0.5293303633152902</v>
       </c>
       <c r="K65" t="n">
         <v>0.6316529894490035</v>
@@ -2350,13 +2350,13 @@
         <v>500.0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3660698280106856</v>
+        <v>0.4052769263387258</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3059141431270601</v>
+        <v>0.33912247311136057</v>
       </c>
       <c r="J66" t="n">
-        <v>0.901300533562014</v>
+        <v>0.9042444099289665</v>
       </c>
       <c r="K66" t="n">
         <v>0.9354838709677419</v>
@@ -2388,13 +2388,13 @@
         <v>1000.0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.39106892553296213</v>
+        <v>0.4210270561222499</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3273016078117947</v>
+        <v>0.3535240622411049</v>
       </c>
       <c r="J67" t="n">
-        <v>0.903531378707771</v>
+        <v>0.8996184685765742</v>
       </c>
       <c r="K67" t="n">
         <v>0.9354838709677419</v>
@@ -2426,13 +2426,13 @@
         <v>500.0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3933483107308234</v>
+        <v>0.43430070283215433</v>
       </c>
       <c r="I68" t="n">
-        <v>0.32786852953780043</v>
+        <v>0.36134378275938633</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8985579777665608</v>
+        <v>0.8976468686190743</v>
       </c>
       <c r="K68" t="n">
         <v>0.9354838709677419</v>
@@ -2464,13 +2464,13 @@
         <v>1000.0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4181402282211659</v>
+        <v>0.4502366156027157</v>
       </c>
       <c r="I69" t="n">
-        <v>0.348833237765608</v>
+        <v>0.37526124504790065</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8953396871899573</v>
+        <v>0.8937209508016362</v>
       </c>
       <c r="K69" t="n">
         <v>0.9354838709677419</v>
@@ -2502,13 +2502,13 @@
         <v>500.0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5097201247496881</v>
+        <v>0.5533276809552151</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4192655212885964</v>
+        <v>0.44937666304006385</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8494856528125605</v>
+        <v>0.839491369307208</v>
       </c>
       <c r="K70" t="n">
         <v>0.9308885754583921</v>
@@ -2540,13 +2540,13 @@
         <v>1000.0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5284135431232234</v>
+        <v>0.5619328342365385</v>
       </c>
       <c r="I71" t="n">
-        <v>0.43375954856915394</v>
+        <v>0.45602720203681923</v>
       </c>
       <c r="J71" t="n">
-        <v>0.842057902556139</v>
+        <v>0.8327040421793076</v>
       </c>
       <c r="K71" t="n">
         <v>0.9308885754583921</v>
@@ -2578,13 +2578,13 @@
         <v>500.0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5236637349289045</v>
+        <v>0.5194953195343224</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4218064890946744</v>
+        <v>0.41574389530715417</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5477268269978716</v>
+        <v>0.5362250057790614</v>
       </c>
       <c r="K72" t="n">
         <v>0.6286049237983588</v>
@@ -2616,13 +2616,13 @@
         <v>1000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5180295479398122</v>
+        <v>0.526613283469898</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4185926383956099</v>
+        <v>0.4228518057218244</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5385057811884917</v>
+        <v>0.5452301396548487</v>
       </c>
       <c r="K73" t="n">
         <v>0.6286049237983588</v>
@@ -2654,13 +2654,13 @@
         <v>500.0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3668725707598959</v>
+        <v>0.40597523957946874</v>
       </c>
       <c r="I74" t="n">
-        <v>0.30295812278946477</v>
+        <v>0.3359473805665587</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9045236206898769</v>
+        <v>0.9155904183610709</v>
       </c>
       <c r="K74" t="n">
         <v>0.9354838709677419</v>
@@ -2692,13 +2692,13 @@
         <v>1000.0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.39182018438894933</v>
+        <v>0.42186026803559207</v>
       </c>
       <c r="I75" t="n">
-        <v>0.32408742901129817</v>
+        <v>0.350419886887734</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9068366581836106</v>
+        <v>0.9116200259087333</v>
       </c>
       <c r="K75" t="n">
         <v>0.9354838709677419</v>
@@ -2730,13 +2730,13 @@
         <v>500.0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.39425019450903814</v>
+        <v>0.43498234335691777</v>
       </c>
       <c r="I76" t="n">
-        <v>0.32459500993961116</v>
+        <v>0.35783591196984954</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9001452957143347</v>
+        <v>0.9056131026879409</v>
       </c>
       <c r="K76" t="n">
         <v>0.9354838709677419</v>
@@ -2768,13 +2768,13 @@
         <v>1000.0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.41936964051889475</v>
+        <v>0.45163220192178605</v>
       </c>
       <c r="I77" t="n">
-        <v>0.34569639589904255</v>
+        <v>0.372405554633159</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9002945863571072</v>
+        <v>0.9037545080471333</v>
       </c>
       <c r="K77" t="n">
         <v>0.9354838709677419</v>
@@ -2806,13 +2806,13 @@
         <v>500.0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5150141855879328</v>
+        <v>0.5587077262385122</v>
       </c>
       <c r="I78" t="n">
-        <v>0.41838178475262267</v>
+        <v>0.44812295288554294</v>
       </c>
       <c r="J78" t="n">
-        <v>0.8554010506016602</v>
+        <v>0.8506490289746313</v>
       </c>
       <c r="K78" t="n">
         <v>0.926657263751763</v>
@@ -2844,13 +2844,13 @@
         <v>1000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5345207350846986</v>
+        <v>0.5688909663357896</v>
       </c>
       <c r="I79" t="n">
-        <v>0.43321982568873674</v>
+        <v>0.45603483383836063</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8506735070100264</v>
+        <v>0.8377600200872012</v>
       </c>
       <c r="K79" t="n">
         <v>0.926657263751763</v>
@@ -2882,13 +2882,13 @@
         <v>500.0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5542134257867928</v>
+        <v>0.5508894632895441</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4397118804896569</v>
+        <v>0.43493035290370813</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5770952895871858</v>
+        <v>0.5658029582789349</v>
       </c>
       <c r="K80" t="n">
         <v>0.5922626025791324</v>
@@ -2920,13 +2920,13 @@
         <v>1000.0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5484082875551449</v>
+        <v>0.5577302493899615</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4368293626805062</v>
+        <v>0.44208368101084666</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5589469286919471</v>
+        <v>0.5691116845340801</v>
       </c>
       <c r="K81" t="n">
         <v>0.5922626025791324</v>
@@ -2958,13 +2958,13 @@
         <v>500.0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.16259919083815866</v>
+        <v>0.206324873161325</v>
       </c>
       <c r="I82" t="n">
-        <v>0.11654770986287101</v>
+        <v>0.14841377990007826</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6496126990686372</v>
+        <v>0.8014202587100998</v>
       </c>
       <c r="K82" t="n">
         <v>0.8987341772151899</v>
@@ -2996,13 +2996,13 @@
         <v>1000.0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.18276507535430622</v>
+        <v>0.22582464115743278</v>
       </c>
       <c r="I83" t="n">
-        <v>0.13185765562541246</v>
+        <v>0.16267732028265935</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7009952222346104</v>
+        <v>0.8385352150349076</v>
       </c>
       <c r="K83" t="n">
         <v>0.8987341772151899</v>
@@ -3034,13 +3034,13 @@
         <v>500.0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.18180552803224145</v>
+        <v>0.22956154601216291</v>
       </c>
       <c r="I84" t="n">
-        <v>0.12952027828547685</v>
+        <v>0.1634299599802265</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6752599077658924</v>
+        <v>0.8021370037429281</v>
       </c>
       <c r="K84" t="n">
         <v>0.8690476190476191</v>
@@ -3072,13 +3072,13 @@
         <v>1000.0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2011399499163975</v>
+        <v>0.24985490647484343</v>
       </c>
       <c r="I85" t="n">
-        <v>0.14467270971775087</v>
+        <v>0.1781341839589333</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7011261336741688</v>
+        <v>0.830632443322037</v>
       </c>
       <c r="K85" t="n">
         <v>0.8690476190476191</v>
@@ -3110,13 +3110,13 @@
         <v>500.0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.28489823087913335</v>
+        <v>0.34100471730324894</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1968846603216157</v>
+        <v>0.23142668116206014</v>
       </c>
       <c r="J86" t="n">
-        <v>0.6962456224521052</v>
+        <v>0.7521640159943692</v>
       </c>
       <c r="K86" t="n">
         <v>0.8472222222222222</v>
@@ -3148,13 +3148,13 @@
         <v>1000.0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3006911295620804</v>
+        <v>0.35575143561459355</v>
       </c>
       <c r="I87" t="n">
-        <v>0.20955000505810553</v>
+        <v>0.24303296775698097</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6912765719505497</v>
+        <v>0.7773808726469752</v>
       </c>
       <c r="K87" t="n">
         <v>0.8472222222222222</v>
@@ -3186,13 +3186,13 @@
         <v>500.0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3823954932840935</v>
+        <v>0.40704818084813094</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2621462185695943</v>
+        <v>0.2798747555005271</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5166461667797512</v>
+        <v>0.5515000437505749</v>
       </c>
       <c r="K88" t="n">
         <v>0.6214177978883861</v>
@@ -3224,13 +3224,13 @@
         <v>1000.0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4013154891844098</v>
+        <v>0.41503642553355063</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2745328378227498</v>
+        <v>0.2837963042767808</v>
       </c>
       <c r="J89" t="n">
-        <v>0.541982050258878</v>
+        <v>0.5848975706462567</v>
       </c>
       <c r="K89" t="n">
         <v>0.6214177978883861</v>
@@ -3262,13 +3262,13 @@
         <v>500.0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.15507067228728338</v>
+        <v>0.19913585826754088</v>
       </c>
       <c r="I90" t="n">
-        <v>0.115421273095355</v>
+        <v>0.1471684741939788</v>
       </c>
       <c r="J90" t="n">
-        <v>0.644954505450251</v>
+        <v>0.7922073463959</v>
       </c>
       <c r="K90" t="n">
         <v>0.8987341772151899</v>
@@ -3300,13 +3300,13 @@
         <v>1000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.17569065677344234</v>
+        <v>0.2180170250814303</v>
       </c>
       <c r="I91" t="n">
-        <v>0.13061185631306058</v>
+        <v>0.16093126155871362</v>
       </c>
       <c r="J91" t="n">
-        <v>0.695662812322365</v>
+        <v>0.8352278574088965</v>
       </c>
       <c r="K91" t="n">
         <v>0.8987341772151899</v>
@@ -3338,13 +3338,13 @@
         <v>500.0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1739774455136571</v>
+        <v>0.22077919103215365</v>
       </c>
       <c r="I92" t="n">
-        <v>0.12832082001078357</v>
+        <v>0.16203938868485074</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6663742481226984</v>
+        <v>0.7970440214145171</v>
       </c>
       <c r="K92" t="n">
         <v>0.8690476190476191</v>
@@ -3376,13 +3376,13 @@
         <v>1000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.19438267544142052</v>
+        <v>0.24168904847015227</v>
       </c>
       <c r="I93" t="n">
-        <v>0.14337417135584088</v>
+        <v>0.1766966938758494</v>
       </c>
       <c r="J93" t="n">
-        <v>0.7007314767023677</v>
+        <v>0.8302298231133165</v>
       </c>
       <c r="K93" t="n">
         <v>0.8690476190476191</v>
@@ -3414,13 +3414,13 @@
         <v>500.0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2736765134332678</v>
+        <v>0.328189678517551</v>
       </c>
       <c r="I94" t="n">
-        <v>0.19572929905417968</v>
+        <v>0.23007904496086645</v>
       </c>
       <c r="J94" t="n">
-        <v>0.7007890423264277</v>
+        <v>0.7576458293066021</v>
       </c>
       <c r="K94" t="n">
         <v>0.8402777777777778</v>
@@ -3452,13 +3452,13 @@
         <v>1000.0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.29044198905796487</v>
+        <v>0.3448323997033143</v>
       </c>
       <c r="I95" t="n">
-        <v>0.20844612192015272</v>
+        <v>0.24205451767659858</v>
       </c>
       <c r="J95" t="n">
-        <v>0.695594445296518</v>
+        <v>0.7875406797730164</v>
       </c>
       <c r="K95" t="n">
         <v>0.8402777777777778</v>
@@ -3490,13 +3490,13 @@
         <v>500.0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.39105679679279465</v>
+        <v>0.41531179442108046</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2652674523871056</v>
+        <v>0.2821925124270401</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5348954136260365</v>
+        <v>0.568654246309819</v>
       </c>
       <c r="K96" t="n">
         <v>0.6093514328808446</v>
@@ -3528,13 +3528,13 @@
         <v>1000.0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4095937825157616</v>
+        <v>0.4243251126313908</v>
       </c>
       <c r="I97" t="n">
-        <v>0.27715393133629956</v>
+        <v>0.2871128180708553</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5556872815729701</v>
+        <v>0.5959368787834497</v>
       </c>
       <c r="K97" t="n">
         <v>0.6093514328808446</v>
@@ -3566,13 +3566,13 @@
         <v>500.0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1588104940993772</v>
+        <v>0.20406238941781635</v>
       </c>
       <c r="I98" t="n">
-        <v>0.11446029942582728</v>
+        <v>0.14580235979279693</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6451328701520728</v>
+        <v>0.7850791308236418</v>
       </c>
       <c r="K98" t="n">
         <v>0.8987341772151899</v>
@@ -3604,13 +3604,13 @@
         <v>1000.0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.17999506784082162</v>
+        <v>0.223247801957581</v>
       </c>
       <c r="I99" t="n">
-        <v>0.12957695741363376</v>
+        <v>0.15958255614494452</v>
       </c>
       <c r="J99" t="n">
-        <v>0.6940804630140834</v>
+        <v>0.8326875383108095</v>
       </c>
       <c r="K99" t="n">
         <v>0.8987341772151899</v>
@@ -3642,13 +3642,13 @@
         <v>500.0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1779161477476665</v>
+        <v>0.22634029345546142</v>
       </c>
       <c r="I100" t="n">
-        <v>0.12729489181999548</v>
+        <v>0.16095956600234299</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6542181126877014</v>
+        <v>0.7935077912310616</v>
       </c>
       <c r="K100" t="n">
         <v>0.8690476190476191</v>
@@ -3680,13 +3680,13 @@
         <v>1000.0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1996128078030095</v>
+        <v>0.24805192392764744</v>
       </c>
       <c r="I101" t="n">
-        <v>0.14240574177942547</v>
+        <v>0.17547107464748515</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6986459584811991</v>
+        <v>0.8249517461409144</v>
       </c>
       <c r="K101" t="n">
         <v>0.8690476190476191</v>
@@ -3718,13 +3718,13 @@
         <v>500.0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.28198462408041564</v>
+        <v>0.33829363295372866</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1949617122188738</v>
+        <v>0.2293699756579322</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6958485221683579</v>
+        <v>0.7536237551435137</v>
       </c>
       <c r="K102" t="n">
         <v>0.8402777777777778</v>
@@ -3756,13 +3756,13 @@
         <v>1000.0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2986482606686594</v>
+        <v>0.35493897594023527</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2074455921826095</v>
+        <v>0.24093749948493587</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6947248124601315</v>
+        <v>0.7822373013967941</v>
       </c>
       <c r="K103" t="n">
         <v>0.8402777777777778</v>
@@ -3794,13 +3794,13 @@
         <v>500.0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.39900900284259566</v>
+        <v>0.424614309942572</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2685109224882422</v>
+        <v>0.2855657012889118</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5443117339168588</v>
+        <v>0.5815307332382122</v>
       </c>
       <c r="K104" t="n">
         <v>0.6078431372549019</v>
@@ -3832,13 +3832,13 @@
         <v>1000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.41965084668010566</v>
+        <v>0.43370547864104986</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2811991873089034</v>
+        <v>0.29059622861997625</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5639100711098074</v>
+        <v>0.6134378404403408</v>
       </c>
       <c r="K105" t="n">
         <v>0.6078431372549019</v>
@@ -3870,13 +3870,13 @@
         <v>500.0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1576506583810932</v>
+        <v>0.20125333010858662</v>
       </c>
       <c r="I106" t="n">
-        <v>0.11293011352319395</v>
+        <v>0.14329856389342444</v>
       </c>
       <c r="J106" t="n">
-        <v>0.634857708737916</v>
+        <v>0.7806255894185972</v>
       </c>
       <c r="K106" t="n">
         <v>0.8987341772151899</v>
@@ -3908,13 +3908,13 @@
         <v>1000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1776278157117602</v>
+        <v>0.2202490077522023</v>
       </c>
       <c r="I107" t="n">
-        <v>0.12764379096403156</v>
+        <v>0.15708005046689777</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6832662772894083</v>
+        <v>0.8212099924872933</v>
       </c>
       <c r="K107" t="n">
         <v>0.8987341772151899</v>
@@ -3946,13 +3946,13 @@
         <v>500.0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1751503537711131</v>
+        <v>0.22336543886508967</v>
       </c>
       <c r="I108" t="n">
-        <v>0.12519246469027576</v>
+        <v>0.1583770052709404</v>
       </c>
       <c r="J108" t="n">
-        <v>0.6440014128536447</v>
+        <v>0.7792504367735397</v>
       </c>
       <c r="K108" t="n">
         <v>0.8690476190476191</v>
@@ -3984,13 +3984,13 @@
         <v>1000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.196994656249836</v>
+        <v>0.24376641501735408</v>
       </c>
       <c r="I109" t="n">
-        <v>0.14005780009735408</v>
+        <v>0.17228533299000767</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6971627424759649</v>
+        <v>0.8232418442085339</v>
       </c>
       <c r="K109" t="n">
         <v>0.8690476190476191</v>
@@ -4022,13 +4022,13 @@
         <v>500.0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.28092725577419914</v>
+        <v>0.33892029992605466</v>
       </c>
       <c r="I110" t="n">
-        <v>0.19327008741452098</v>
+        <v>0.22834407662937892</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6964519871165996</v>
+        <v>0.755662122018414</v>
       </c>
       <c r="K110" t="n">
         <v>0.8402777777777778</v>
@@ -4060,13 +4060,13 @@
         <v>1000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.29613815031908436</v>
+        <v>0.3549847053529859</v>
       </c>
       <c r="I111" t="n">
-        <v>0.20513971448922788</v>
+        <v>0.23940944891345176</v>
       </c>
       <c r="J111" t="n">
-        <v>0.6896603424639935</v>
+        <v>0.7845397786810346</v>
       </c>
       <c r="K111" t="n">
         <v>0.8402777777777778</v>
@@ -4098,13 +4098,13 @@
         <v>500.0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4112983718226226</v>
+        <v>0.4356083962556006</v>
       </c>
       <c r="I112" t="n">
-        <v>0.27500418861676657</v>
+        <v>0.29053015470612525</v>
       </c>
       <c r="J112" t="n">
-        <v>0.555803362562641</v>
+        <v>0.5955009576210831</v>
       </c>
       <c r="K112" t="n">
         <v>0.5671191553544495</v>
@@ -4136,13 +4136,13 @@
         <v>1000.0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4310117554349721</v>
+        <v>0.44227279509537293</v>
       </c>
       <c r="I113" t="n">
-        <v>0.2864602605759838</v>
+        <v>0.29408029946720754</v>
       </c>
       <c r="J113" t="n">
-        <v>0.5677102908437864</v>
+        <v>0.607185997067202</v>
       </c>
       <c r="K113" t="n">
         <v>0.5671191553544495</v>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E8B7F-35FD-4DFB-A343-91EA31E40E7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425DA1E7-D4AB-427F-96D9-A5A7500A5359}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A781" workbookViewId="0">
-      <selection activeCell="J792" sqref="J792"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306:L449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9699,7 +9699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -9722,12 +9722,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>15</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C306">
         <v>5.0000000000000001E-3</v>
@@ -9744,28 +9744,13 @@
       <c r="G306">
         <v>0</v>
       </c>
-      <c r="H306">
-        <v>-3.1269301369036731E-2</v>
-      </c>
-      <c r="I306">
-        <v>0.1448710216481689</v>
-      </c>
-      <c r="J306">
-        <v>0.72793295736226182</v>
-      </c>
-      <c r="K306">
-        <v>0.31575246132208157</v>
-      </c>
-      <c r="L306">
-        <v>0.66534023079984084</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>15</v>
       </c>
       <c r="B307">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C307">
         <v>5.0000000000000001E-3</v>
@@ -9782,28 +9767,13 @@
       <c r="G307">
         <v>0</v>
       </c>
-      <c r="H307">
-        <v>0.15294661198183626</v>
-      </c>
-      <c r="I307">
-        <v>0.21558227944429065</v>
-      </c>
-      <c r="J307">
-        <v>0.68916931560232741</v>
-      </c>
-      <c r="K307">
-        <v>0.29242819843342038</v>
-      </c>
-      <c r="L307">
-        <v>0.66281400320684125</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>15</v>
       </c>
       <c r="B308">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C308">
         <v>5.0000000000000001E-3</v>
@@ -9820,28 +9790,13 @@
       <c r="G308">
         <v>0</v>
       </c>
-      <c r="H308">
-        <v>0.23277957133120322</v>
-      </c>
-      <c r="I308">
-        <v>0.23645625331396616</v>
-      </c>
-      <c r="J308">
-        <v>0.4927485247884269</v>
-      </c>
-      <c r="K308">
-        <v>0.31178451178451178</v>
-      </c>
-      <c r="L308">
-        <v>0.66486846486846485</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>15</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C309">
         <v>0.01</v>
@@ -9858,28 +9813,13 @@
       <c r="G309">
         <v>0</v>
       </c>
-      <c r="H309">
-        <v>2.6360781168480622E-2</v>
-      </c>
-      <c r="I309">
-        <v>0.1904026025104722</v>
-      </c>
-      <c r="J309">
-        <v>0.76341567218144557</v>
-      </c>
-      <c r="K309">
-        <v>0.31375259156876295</v>
-      </c>
-      <c r="L309">
-        <v>0.66511658805553708</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>15</v>
       </c>
       <c r="B310">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C310">
         <v>0.01</v>
@@ -9896,28 +9836,13 @@
       <c r="G310">
         <v>0</v>
       </c>
-      <c r="H310">
-        <v>0.1868998646022243</v>
-      </c>
-      <c r="I310">
-        <v>0.24307611233692472</v>
-      </c>
-      <c r="J310">
-        <v>0.69919350478452991</v>
-      </c>
-      <c r="K310">
-        <v>0.29040566645202831</v>
-      </c>
-      <c r="L310">
-        <v>0.66254097812270019</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>15</v>
       </c>
       <c r="B311">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C311">
         <v>0.01</v>
@@ -9934,28 +9859,13 @@
       <c r="G311">
         <v>0</v>
       </c>
-      <c r="H311">
-        <v>0.24256687337973457</v>
-      </c>
-      <c r="I311">
-        <v>0.24456165638866537</v>
-      </c>
-      <c r="J311">
-        <v>0.48757194209910465</v>
-      </c>
-      <c r="K311">
-        <v>0.31178451178451178</v>
-      </c>
-      <c r="L311">
-        <v>0.66486846486846485</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>15</v>
       </c>
       <c r="B312">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C312">
         <v>0.1</v>
@@ -9972,28 +9882,13 @@
       <c r="G312">
         <v>0</v>
       </c>
-      <c r="H312">
-        <v>0.48148037688655965</v>
-      </c>
-      <c r="I312">
-        <v>0.40678185361408487</v>
-      </c>
-      <c r="J312">
-        <v>0.77670655345827888</v>
-      </c>
-      <c r="K312">
-        <v>0.28514654744162943</v>
-      </c>
-      <c r="L312">
-        <v>0.66031614550976736</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>15</v>
       </c>
       <c r="B313">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C313">
         <v>0.1</v>
@@ -10010,28 +9905,13 @@
       <c r="G313">
         <v>0</v>
       </c>
-      <c r="H313">
-        <v>0.47244978220226264</v>
-      </c>
-      <c r="I313">
-        <v>0.40041813355107386</v>
-      </c>
-      <c r="J313">
-        <v>0.67725071002980963</v>
-      </c>
-      <c r="K313">
-        <v>0.25798011512297225</v>
-      </c>
-      <c r="L313">
-        <v>0.65713894029748443</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>15</v>
       </c>
       <c r="B314">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C314">
         <v>0.1</v>
@@ -10048,28 +9928,13 @@
       <c r="G314">
         <v>0</v>
       </c>
-      <c r="H314">
-        <v>0.35656124405312967</v>
-      </c>
-      <c r="I314">
-        <v>0.30634429296739307</v>
-      </c>
-      <c r="J314">
-        <v>0.46478870715860238</v>
-      </c>
-      <c r="K314">
-        <v>0.29758214507129571</v>
-      </c>
-      <c r="L314">
-        <v>0.66312890441324646</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>15</v>
       </c>
       <c r="B315">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C315">
         <v>5.0000000000000001E-3</v>
@@ -10086,28 +9951,13 @@
       <c r="G315">
         <v>0</v>
       </c>
-      <c r="H315">
-        <v>0.1832659803706207</v>
-      </c>
-      <c r="I315">
-        <v>0.15902708014213471</v>
-      </c>
-      <c r="J315">
-        <v>0.71458604485544808</v>
-      </c>
-      <c r="K315">
-        <v>0.24824191279887484</v>
-      </c>
-      <c r="L315">
-        <v>0.69717469160366097</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>15</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C316">
         <v>5.0000000000000001E-3</v>
@@ -10124,28 +9974,13 @@
       <c r="G316">
         <v>0</v>
       </c>
-      <c r="H316">
-        <v>0.25958952279154129</v>
-      </c>
-      <c r="I316">
-        <v>0.2219665504966529</v>
-      </c>
-      <c r="J316">
-        <v>0.67944646470961545</v>
-      </c>
-      <c r="K316">
-        <v>0.2310704960835509</v>
-      </c>
-      <c r="L316">
-        <v>0.69501603420630675</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>15</v>
       </c>
       <c r="B317">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C317">
         <v>5.0000000000000001E-3</v>
@@ -10162,28 +9997,13 @@
       <c r="G317">
         <v>0</v>
       </c>
-      <c r="H317">
-        <v>0.27700626717692534</v>
-      </c>
-      <c r="I317">
-        <v>0.24025298571575759</v>
-      </c>
-      <c r="J317">
-        <v>0.47934996209305564</v>
-      </c>
-      <c r="K317">
-        <v>0.24579124579124578</v>
-      </c>
-      <c r="L317">
-        <v>0.69670329670329667</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>15</v>
       </c>
       <c r="B318">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C318">
         <v>0.01</v>
@@ -10200,28 +10020,13 @@
       <c r="G318">
         <v>0</v>
       </c>
-      <c r="H318">
-        <v>0.23339942271910907</v>
-      </c>
-      <c r="I318">
-        <v>0.20069153265626619</v>
-      </c>
-      <c r="J318">
-        <v>0.75255315257890387</v>
-      </c>
-      <c r="K318">
-        <v>0.24740843123704215</v>
-      </c>
-      <c r="L318">
-        <v>0.69700391948448814</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>15</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C319">
         <v>0.01</v>
@@ -10238,28 +10043,13 @@
       <c r="G319">
         <v>0</v>
       </c>
-      <c r="H319">
-        <v>0.29063040066229034</v>
-      </c>
-      <c r="I319">
-        <v>0.24818522940842805</v>
-      </c>
-      <c r="J319">
-        <v>0.68993310657522056</v>
-      </c>
-      <c r="K319">
-        <v>0.22982569399612654</v>
-      </c>
-      <c r="L319">
-        <v>0.69480302320914988</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>15</v>
       </c>
       <c r="B320">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C320">
         <v>0.01</v>
@@ -10276,28 +10066,13 @@
       <c r="G320">
         <v>0</v>
       </c>
-      <c r="H320">
-        <v>0.28574474295382635</v>
-      </c>
-      <c r="I320">
-        <v>0.24788831819692661</v>
-      </c>
-      <c r="J320">
-        <v>0.48238425036766985</v>
-      </c>
-      <c r="K320">
-        <v>0.24579124579124578</v>
-      </c>
-      <c r="L320">
-        <v>0.69670329670329667</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>15</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C321">
         <v>0.1</v>
@@ -10314,28 +10089,13 @@
       <c r="G321">
         <v>0</v>
       </c>
-      <c r="H321">
-        <v>0.48529174797441244</v>
-      </c>
-      <c r="I321">
-        <v>0.40921638135664151</v>
-      </c>
-      <c r="J321">
-        <v>0.77811566783903496</v>
-      </c>
-      <c r="K321">
-        <v>0.23596621957277694</v>
-      </c>
-      <c r="L321">
-        <v>0.69324221716021261</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>15</v>
       </c>
       <c r="B322">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C322">
         <v>0.1</v>
@@ -10352,28 +10112,13 @@
       <c r="G322">
         <v>0</v>
       </c>
-      <c r="H322">
-        <v>0.47490694983849419</v>
-      </c>
-      <c r="I322">
-        <v>0.40200262230214662</v>
-      </c>
-      <c r="J322">
-        <v>0.67850509182620466</v>
-      </c>
-      <c r="K322">
-        <v>0.2090185676392573</v>
-      </c>
-      <c r="L322">
-        <v>0.69038658912076634</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>15</v>
       </c>
       <c r="B323">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C323">
         <v>0.1</v>
@@ -10390,28 +10135,13 @@
       <c r="G323">
         <v>0</v>
       </c>
-      <c r="H323">
-        <v>0.36046072148632874</v>
-      </c>
-      <c r="I323">
-        <v>0.3093059851001303</v>
-      </c>
-      <c r="J323">
-        <v>0.46803695946269974</v>
-      </c>
-      <c r="K323">
-        <v>0.23682579045257285</v>
-      </c>
-      <c r="L323">
-        <v>0.69523745549808558</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>15</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C324">
         <v>5.0000000000000001E-3</v>
@@ -10428,28 +10158,13 @@
       <c r="G324">
         <v>0</v>
       </c>
-      <c r="H324">
-        <v>0.1828744662410163</v>
-      </c>
-      <c r="I324">
-        <v>0.15848494370096777</v>
-      </c>
-      <c r="J324">
-        <v>0.71606013095298315</v>
-      </c>
-      <c r="K324">
-        <v>0.21782178217821782</v>
-      </c>
-      <c r="L324">
-        <v>0.72092092092092097</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>15</v>
       </c>
       <c r="B325">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C325">
         <v>5.0000000000000001E-3</v>
@@ -10466,28 +10181,13 @@
       <c r="G325">
         <v>0</v>
       </c>
-      <c r="H325">
-        <v>0.25980514907792984</v>
-      </c>
-      <c r="I325">
-        <v>0.22188736706476153</v>
-      </c>
-      <c r="J325">
-        <v>0.68116190004771626</v>
-      </c>
-      <c r="K325">
-        <v>0.2058252427184466</v>
-      </c>
-      <c r="L325">
-        <v>0.71955867602808421</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>15</v>
       </c>
       <c r="B326">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C326">
         <v>5.0000000000000001E-3</v>
@@ -10504,28 +10204,13 @@
       <c r="G326">
         <v>0</v>
       </c>
-      <c r="H326">
-        <v>0.27755205331041716</v>
-      </c>
-      <c r="I326">
-        <v>0.24055978496050684</v>
-      </c>
-      <c r="J326">
-        <v>0.48134860839387861</v>
-      </c>
-      <c r="K326">
-        <v>0.22154882154882155</v>
-      </c>
-      <c r="L326">
-        <v>0.72141192141192145</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>15</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C327">
         <v>0.01</v>
@@ -10542,28 +10227,13 @@
       <c r="G327">
         <v>0</v>
       </c>
-      <c r="H327">
-        <v>0.23304323235847277</v>
-      </c>
-      <c r="I327">
-        <v>0.20018218708761698</v>
-      </c>
-      <c r="J327">
-        <v>0.75371475779763741</v>
-      </c>
-      <c r="K327">
-        <v>0.21764327108821635</v>
-      </c>
-      <c r="L327">
-        <v>0.72074663812136219</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>15</v>
       </c>
       <c r="B328">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C328">
         <v>0.01</v>
@@ -10580,28 +10250,13 @@
       <c r="G328">
         <v>0</v>
       </c>
-      <c r="H328">
-        <v>0.29138847726928774</v>
-      </c>
-      <c r="I328">
-        <v>0.24855927582357717</v>
-      </c>
-      <c r="J328">
-        <v>0.69154801160639345</v>
-      </c>
-      <c r="K328">
-        <v>0.20342205323193915</v>
-      </c>
-      <c r="L328">
-        <v>0.71913952553277039</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>15</v>
       </c>
       <c r="B329">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C329">
         <v>0.01</v>
@@ -10618,28 +10273,13 @@
       <c r="G329">
         <v>0</v>
       </c>
-      <c r="H329">
-        <v>0.28629655843939789</v>
-      </c>
-      <c r="I329">
-        <v>0.24820904474008862</v>
-      </c>
-      <c r="J329">
-        <v>0.48438289666849288</v>
-      </c>
-      <c r="K329">
-        <v>0.22154882154882155</v>
-      </c>
-      <c r="L329">
-        <v>0.72141192141192145</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>15</v>
       </c>
       <c r="B330">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C330">
         <v>0.1</v>
@@ -10656,28 +10296,13 @@
       <c r="G330">
         <v>0</v>
       </c>
-      <c r="H330">
-        <v>0.48639379914327013</v>
-      </c>
-      <c r="I330">
-        <v>0.40986849860327157</v>
-      </c>
-      <c r="J330">
-        <v>0.77949966528736059</v>
-      </c>
-      <c r="K330">
-        <v>0.22815304676428907</v>
-      </c>
-      <c r="L330">
-        <v>0.71987763331711052</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
       <c r="B331">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C331">
         <v>0.1</v>
@@ -10694,28 +10319,13 @@
       <c r="G331">
         <v>0</v>
       </c>
-      <c r="H331">
-        <v>0.4769519101293348</v>
-      </c>
-      <c r="I331">
-        <v>0.40327204103658143</v>
-      </c>
-      <c r="J331">
-        <v>0.68069898170731491</v>
-      </c>
-      <c r="K331">
-        <v>0.19030428055698814</v>
-      </c>
-      <c r="L331">
-        <v>0.71547283840395581</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
       <c r="B332">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C332">
         <v>0.1</v>
@@ -10732,28 +10342,13 @@
       <c r="G332">
         <v>0</v>
       </c>
-      <c r="H332">
-        <v>0.36212967173466554</v>
-      </c>
-      <c r="I332">
-        <v>0.3105426934028151</v>
-      </c>
-      <c r="J332">
-        <v>0.47089266116603268</v>
-      </c>
-      <c r="K332">
-        <v>0.21450712957222567</v>
-      </c>
-      <c r="L332">
-        <v>0.7201585275743938</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>15</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C333">
         <v>5.0000000000000001E-3</v>
@@ -10770,28 +10365,13 @@
       <c r="G333">
         <v>0</v>
       </c>
-      <c r="H333">
-        <v>0.18563386102944127</v>
-      </c>
-      <c r="I333">
-        <v>0.15888756974981716</v>
-      </c>
-      <c r="J333">
-        <v>0.71721826484316975</v>
-      </c>
-      <c r="K333">
-        <v>0.18120351588911426</v>
-      </c>
-      <c r="L333">
-        <v>0.7681911989880833</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>15</v>
       </c>
       <c r="B334">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C334">
         <v>5.0000000000000001E-3</v>
@@ -10808,28 +10388,13 @@
       <c r="G334">
         <v>0</v>
       </c>
-      <c r="H334">
-        <v>0.26626813645730973</v>
-      </c>
-      <c r="I334">
-        <v>0.22465460351368005</v>
-      </c>
-      <c r="J334">
-        <v>0.68803483577833779</v>
-      </c>
-      <c r="K334">
-        <v>0.17876424715056988</v>
-      </c>
-      <c r="L334">
-        <v>0.76727566911615996</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>15</v>
       </c>
       <c r="B335">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C335">
         <v>5.0000000000000001E-3</v>
@@ -10846,28 +10411,13 @@
       <c r="G335">
         <v>0</v>
       </c>
-      <c r="H335">
-        <v>0.28839485267453652</v>
-      </c>
-      <c r="I335">
-        <v>0.24704664390374359</v>
-      </c>
-      <c r="J335">
-        <v>0.47889142145945962</v>
-      </c>
-      <c r="K335">
-        <v>0.18904726181545387</v>
-      </c>
-      <c r="L335">
-        <v>0.76936770620425921</v>
-      </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>15</v>
       </c>
       <c r="B336">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C336">
         <v>0.01</v>
@@ -10884,28 +10434,13 @@
       <c r="G336">
         <v>0</v>
       </c>
-      <c r="H336">
-        <v>0.23633720771246186</v>
-      </c>
-      <c r="I336">
-        <v>0.20049362500185725</v>
-      </c>
-      <c r="J336">
-        <v>0.75496500304821201</v>
-      </c>
-      <c r="K336">
-        <v>0.18163804491413474</v>
-      </c>
-      <c r="L336">
-        <v>0.76811690911517416</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>15</v>
       </c>
       <c r="B337">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C337">
         <v>0.01</v>
@@ -10922,28 +10457,13 @@
       <c r="G337">
         <v>0</v>
       </c>
-      <c r="H337">
-        <v>0.29815851733519461</v>
-      </c>
-      <c r="I337">
-        <v>0.25121999235854475</v>
-      </c>
-      <c r="J337">
-        <v>0.69814866224667338</v>
-      </c>
-      <c r="K337">
-        <v>0.17764705882352941</v>
-      </c>
-      <c r="L337">
-        <v>0.76702702702702708</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
       <c r="B338">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C338">
         <v>0.01</v>
@@ -10960,28 +10480,13 @@
       <c r="G338">
         <v>0</v>
       </c>
-      <c r="H338">
-        <v>0.29724631305598442</v>
-      </c>
-      <c r="I338">
-        <v>0.25471859065442776</v>
-      </c>
-      <c r="J338">
-        <v>0.47840178224432256</v>
-      </c>
-      <c r="K338">
-        <v>0.18904726181545387</v>
-      </c>
-      <c r="L338">
-        <v>0.76936770620425921</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>15</v>
       </c>
       <c r="B339">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C339">
         <v>0.1</v>
@@ -10998,28 +10503,13 @@
       <c r="G339">
         <v>0</v>
       </c>
-      <c r="H339">
-        <v>0.49400024948804239</v>
-      </c>
-      <c r="I339">
-        <v>0.4113678921573497</v>
-      </c>
-      <c r="J339">
-        <v>0.78204279922309872</v>
-      </c>
-      <c r="K339">
-        <v>0.18397626112759644</v>
-      </c>
-      <c r="L339">
-        <v>0.76668048072938255</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>15</v>
       </c>
       <c r="B340">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C340">
         <v>0.1</v>
@@ -11036,28 +10526,13 @@
       <c r="G340">
         <v>0</v>
       </c>
-      <c r="H340">
-        <v>0.48706483358402713</v>
-      </c>
-      <c r="I340">
-        <v>0.40721642595425761</v>
-      </c>
-      <c r="J340">
-        <v>0.68986165572042657</v>
-      </c>
-      <c r="K340">
-        <v>0.17403846153846153</v>
-      </c>
-      <c r="L340">
-        <v>0.7650485436893204</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>15</v>
       </c>
       <c r="B341">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C341">
         <v>0.1</v>
@@ -11074,28 +10549,13 @@
       <c r="G341">
         <v>0</v>
       </c>
-      <c r="H341">
-        <v>0.37425208023051088</v>
-      </c>
-      <c r="I341">
-        <v>0.31750147497050241</v>
-      </c>
-      <c r="J341">
-        <v>0.47113699347785554</v>
-      </c>
-      <c r="K341">
-        <v>0.18412046543463381</v>
-      </c>
-      <c r="L341">
-        <v>0.76853514196422634</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>15</v>
       </c>
       <c r="B342">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C342">
         <v>5.0000000000000001E-3</v>
@@ -11112,28 +10572,13 @@
       <c r="G342">
         <v>0</v>
       </c>
-      <c r="H342">
-        <v>-0.75511391597570754</v>
-      </c>
-      <c r="I342">
-        <v>8.5877776005806941E-2</v>
-      </c>
-      <c r="J342">
-        <v>0.75058078017658725</v>
-      </c>
-      <c r="K342">
-        <v>0.12926136363636365</v>
-      </c>
-      <c r="L342">
-        <v>0.85902896081771718</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>15</v>
       </c>
       <c r="B343">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C343">
         <v>5.0000000000000001E-3</v>
@@ -11150,28 +10595,13 @@
       <c r="G343">
         <v>0</v>
       </c>
-      <c r="H343">
-        <v>-0.26174696713532558</v>
-      </c>
-      <c r="I343">
-        <v>0.12840873038463579</v>
-      </c>
-      <c r="J343">
-        <v>0.60986924092207395</v>
-      </c>
-      <c r="K343">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L343">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>15</v>
       </c>
       <c r="B344">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C344">
         <v>5.0000000000000001E-3</v>
@@ -11188,28 +10618,13 @@
       <c r="G344">
         <v>0</v>
       </c>
-      <c r="H344">
-        <v>6.881941155643212E-2</v>
-      </c>
-      <c r="I344">
-        <v>0.17222357681139944</v>
-      </c>
-      <c r="J344">
-        <v>0.50014377360408169</v>
-      </c>
-      <c r="K344">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L344">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>15</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C345">
         <v>0.01</v>
@@ -11226,28 +10641,13 @@
       <c r="G345">
         <v>0</v>
       </c>
-      <c r="H345">
-        <v>-0.73293649373935221</v>
-      </c>
-      <c r="I345">
-        <v>0.10239598168901579</v>
-      </c>
-      <c r="J345">
-        <v>0.75715014724481478</v>
-      </c>
-      <c r="K345">
-        <v>0.12871287128712872</v>
-      </c>
-      <c r="L345">
-        <v>0.85893884508842955</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>15</v>
       </c>
       <c r="B346">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C346">
         <v>0.01</v>
@@ -11264,28 +10664,13 @@
       <c r="G346">
         <v>0</v>
       </c>
-      <c r="H346">
-        <v>-0.24822853632553077</v>
-      </c>
-      <c r="I346">
-        <v>0.13808011706617201</v>
-      </c>
-      <c r="J346">
-        <v>0.62156638674327147</v>
-      </c>
-      <c r="K346">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L346">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>15</v>
       </c>
       <c r="B347">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C347">
         <v>0.01</v>
@@ -11302,28 +10687,13 @@
       <c r="G347">
         <v>0</v>
       </c>
-      <c r="H347">
-        <v>7.3305279932476583E-2</v>
-      </c>
-      <c r="I347">
-        <v>0.17534214506782117</v>
-      </c>
-      <c r="J347">
-        <v>0.49445951454528442</v>
-      </c>
-      <c r="K347">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L347">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>15</v>
       </c>
       <c r="B348">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C348">
         <v>0.1</v>
@@ -11340,28 +10710,13 @@
       <c r="G348">
         <v>0</v>
       </c>
-      <c r="H348">
-        <v>-0.23486575740300092</v>
-      </c>
-      <c r="I348">
-        <v>0.2610472690091159</v>
-      </c>
-      <c r="J348">
-        <v>0.80017693937438961</v>
-      </c>
-      <c r="K348">
-        <v>0.12885906040268458</v>
-      </c>
-      <c r="L348">
-        <v>0.85886143931256709</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>15</v>
       </c>
       <c r="B349">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C349">
         <v>0.1</v>
@@ -11378,28 +10733,13 @@
       <c r="G349">
         <v>0</v>
       </c>
-      <c r="H349">
-        <v>4.9967183630864144E-2</v>
-      </c>
-      <c r="I349">
-        <v>0.24974202892841732</v>
-      </c>
-      <c r="J349">
-        <v>0.62524872682487154</v>
-      </c>
-      <c r="K349">
-        <v>8.957415565345081E-2</v>
-      </c>
-      <c r="L349">
-        <v>0.85335876244967157</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>15</v>
       </c>
       <c r="B350">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C350">
         <v>0.1</v>
@@ -11416,28 +10756,13 @@
       <c r="G350">
         <v>0</v>
       </c>
-      <c r="H350">
-        <v>0.21524532944988337</v>
-      </c>
-      <c r="I350">
-        <v>0.2365825240154934</v>
-      </c>
-      <c r="J350">
-        <v>0.48862298195631526</v>
-      </c>
-      <c r="K350">
-        <v>8.68945868945869E-2</v>
-      </c>
-      <c r="L350">
-        <v>0.85270327799063428</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C351">
         <v>5.0000000000000001E-3</v>
@@ -11454,28 +10779,13 @@
       <c r="G351">
         <v>0</v>
       </c>
-      <c r="H351">
-        <v>0.14535614925978091</v>
-      </c>
-      <c r="I351">
-        <v>0.11169158288033933</v>
-      </c>
-      <c r="J351">
-        <v>0.70260583355757256</v>
-      </c>
-      <c r="K351">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="L351">
-        <v>0.87201873935264052</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>15</v>
       </c>
       <c r="B352">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C352">
         <v>5.0000000000000001E-3</v>
@@ -11492,28 +10802,13 @@
       <c r="G352">
         <v>0</v>
       </c>
-      <c r="H352">
-        <v>0.18874830122667474</v>
-      </c>
-      <c r="I352">
-        <v>0.14134368307839218</v>
-      </c>
-      <c r="J352">
-        <v>0.56484031584823413</v>
-      </c>
-      <c r="K352">
-        <v>7.5617283950617287E-2</v>
-      </c>
-      <c r="L352">
-        <v>0.867003367003367</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>15</v>
       </c>
       <c r="B353">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C353">
         <v>5.0000000000000001E-3</v>
@@ -11530,28 +10825,13 @@
       <c r="G353">
         <v>0</v>
       </c>
-      <c r="H353">
-        <v>0.24753692488843373</v>
-      </c>
-      <c r="I353">
-        <v>0.17838533528318054</v>
-      </c>
-      <c r="J353">
-        <v>0.47231536771360605</v>
-      </c>
-      <c r="K353">
-        <v>7.5617283950617287E-2</v>
-      </c>
-      <c r="L353">
-        <v>0.867003367003367</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>15</v>
       </c>
       <c r="B354">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C354">
         <v>0.01</v>
@@ -11568,28 +10848,13 @@
       <c r="G354">
         <v>0</v>
       </c>
-      <c r="H354">
-        <v>0.1636992088293456</v>
-      </c>
-      <c r="I354">
-        <v>0.12604801106489497</v>
-      </c>
-      <c r="J354">
-        <v>0.72729230108269916</v>
-      </c>
-      <c r="K354">
-        <v>0.11315417256011315</v>
-      </c>
-      <c r="L354">
-        <v>0.87193692733858941</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>15</v>
       </c>
       <c r="B355">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C355">
         <v>0.01</v>
@@ -11606,28 +10871,13 @@
       <c r="G355">
         <v>0</v>
       </c>
-      <c r="H355">
-        <v>0.2011747548530752</v>
-      </c>
-      <c r="I355">
-        <v>0.15047344616658617</v>
-      </c>
-      <c r="J355">
-        <v>0.58424340402100994</v>
-      </c>
-      <c r="K355">
-        <v>7.5617283950617287E-2</v>
-      </c>
-      <c r="L355">
-        <v>0.867003367003367</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>15</v>
       </c>
       <c r="B356">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C356">
         <v>0.01</v>
@@ -11644,28 +10894,13 @@
       <c r="G356">
         <v>0</v>
       </c>
-      <c r="H356">
-        <v>0.25169733334245814</v>
-      </c>
-      <c r="I356">
-        <v>0.18130573060295888</v>
-      </c>
-      <c r="J356">
-        <v>0.47192890290964873</v>
-      </c>
-      <c r="K356">
-        <v>7.5617283950617287E-2</v>
-      </c>
-      <c r="L356">
-        <v>0.867003367003367</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>15</v>
       </c>
       <c r="B357">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C357">
         <v>0.1</v>
@@ -11682,28 +10917,13 @@
       <c r="G357">
         <v>0</v>
       </c>
-      <c r="H357">
-        <v>0.37481646962679627</v>
-      </c>
-      <c r="I357">
-        <v>0.27616740769070064</v>
-      </c>
-      <c r="J357">
-        <v>0.79391282102044092</v>
-      </c>
-      <c r="K357">
-        <v>0.11409395973154363</v>
-      </c>
-      <c r="L357">
-        <v>0.87196562835660585</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>15</v>
       </c>
       <c r="B358">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C358">
         <v>0.1</v>
@@ -11720,28 +10940,13 @@
       <c r="G358">
         <v>0</v>
       </c>
-      <c r="H358">
-        <v>0.35769851584157192</v>
-      </c>
-      <c r="I358">
-        <v>0.25898626438053224</v>
-      </c>
-      <c r="J358">
-        <v>0.61818204975085722</v>
-      </c>
-      <c r="K358">
-        <v>7.3421439060205582E-2</v>
-      </c>
-      <c r="L358">
-        <v>0.86628522992159351</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>15</v>
       </c>
       <c r="B359">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C359">
         <v>0.1</v>
@@ -11758,28 +10963,13 @@
       <c r="G359">
         <v>0</v>
       </c>
-      <c r="H359">
-        <v>0.34146298909884032</v>
-      </c>
-      <c r="I359">
-        <v>0.24217489388392022</v>
-      </c>
-      <c r="J359">
-        <v>0.48173701060299001</v>
-      </c>
-      <c r="K359">
-        <v>6.9800569800569798E-2</v>
-      </c>
-      <c r="L359">
-        <v>0.86547467007237122</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>15</v>
       </c>
       <c r="B360">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C360">
         <v>5.0000000000000001E-3</v>
@@ -11796,28 +10986,13 @@
       <c r="G360">
         <v>0</v>
       </c>
-      <c r="H360">
-        <v>0.15165638708308599</v>
-      </c>
-      <c r="I360">
-        <v>0.11267134880661171</v>
-      </c>
-      <c r="J360">
-        <v>0.70530546413444095</v>
-      </c>
-      <c r="K360">
-        <v>0.11303191489361702</v>
-      </c>
-      <c r="L360">
-        <v>0.87672117039586916</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>15</v>
       </c>
       <c r="B361">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C361">
         <v>5.0000000000000001E-3</v>
@@ -11834,28 +11009,13 @@
       <c r="G361">
         <v>0</v>
       </c>
-      <c r="H361">
-        <v>0.19692543219983324</v>
-      </c>
-      <c r="I361">
-        <v>0.14262355215915631</v>
-      </c>
-      <c r="J361">
-        <v>0.56778486452449017</v>
-      </c>
-      <c r="K361">
-        <v>7.5268817204301078E-2</v>
-      </c>
-      <c r="L361">
-        <v>0.87176247631080228</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>15</v>
       </c>
       <c r="B362">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C362">
         <v>5.0000000000000001E-3</v>
@@ -11872,28 +11032,13 @@
       <c r="G362">
         <v>0</v>
       </c>
-      <c r="H362">
-        <v>0.25809610795903581</v>
-      </c>
-      <c r="I362">
-        <v>0.17994482231230347</v>
-      </c>
-      <c r="J362">
-        <v>0.47520888623212459</v>
-      </c>
-      <c r="K362">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="L362">
-        <v>0.87163299663299665</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>15</v>
       </c>
       <c r="B363">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C363">
         <v>0.01</v>
@@ -11910,28 +11055,13 @@
       <c r="G363">
         <v>0</v>
       </c>
-      <c r="H363">
-        <v>0.17060844532306149</v>
-      </c>
-      <c r="I363">
-        <v>0.12707417617407826</v>
-      </c>
-      <c r="J363">
-        <v>0.72991588572782484</v>
-      </c>
-      <c r="K363">
-        <v>0.1152317880794702</v>
-      </c>
-      <c r="L363">
-        <v>0.87707212055974171</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>15</v>
       </c>
       <c r="B364">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C364">
         <v>0.01</v>
@@ -11948,28 +11078,13 @@
       <c r="G364">
         <v>0</v>
       </c>
-      <c r="H364">
-        <v>0.20980412386567313</v>
-      </c>
-      <c r="I364">
-        <v>0.1517616386733395</v>
-      </c>
-      <c r="J364">
-        <v>0.58708402744986876</v>
-      </c>
-      <c r="K364">
-        <v>7.4809160305343514E-2</v>
-      </c>
-      <c r="L364">
-        <v>0.87165437302423598</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>15</v>
       </c>
       <c r="B365">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C365">
         <v>0.01</v>
@@ -11986,28 +11101,13 @@
       <c r="G365">
         <v>0</v>
       </c>
-      <c r="H365">
-        <v>0.26278092269162995</v>
-      </c>
-      <c r="I365">
-        <v>0.18307231083966138</v>
-      </c>
-      <c r="J365">
-        <v>0.47520822389730305</v>
-      </c>
-      <c r="K365">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="L365">
-        <v>0.87163299663299665</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>15</v>
       </c>
       <c r="B366">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C366">
         <v>0.1</v>
@@ -12024,28 +11124,13 @@
       <c r="G366">
         <v>0</v>
       </c>
-      <c r="H366">
-        <v>0.38757390409997666</v>
-      </c>
-      <c r="I366">
-        <v>0.27650390401199265</v>
-      </c>
-      <c r="J366">
-        <v>0.7970364265536849</v>
-      </c>
-      <c r="K366">
-        <v>0.11563731931668857</v>
-      </c>
-      <c r="L366">
-        <v>0.8771286915283466</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>15</v>
       </c>
       <c r="B367">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C367">
         <v>0.1</v>
@@ -12062,28 +11147,13 @@
       <c r="G367">
         <v>0</v>
       </c>
-      <c r="H367">
-        <v>0.37214582458498446</v>
-      </c>
-      <c r="I367">
-        <v>0.26065037564888355</v>
-      </c>
-      <c r="J367">
-        <v>0.62120137342235482</v>
-      </c>
-      <c r="K367">
-        <v>7.6149425287356326E-2</v>
-      </c>
-      <c r="L367">
-        <v>0.87138605442176875</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>15</v>
       </c>
       <c r="B368">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C368">
         <v>0.1</v>
@@ -12100,28 +11170,13 @@
       <c r="G368">
         <v>0</v>
       </c>
-      <c r="H368">
-        <v>0.35483494928653614</v>
-      </c>
-      <c r="I368">
-        <v>0.24380380677776675</v>
-      </c>
-      <c r="J368">
-        <v>0.48631891209210798</v>
-      </c>
-      <c r="K368">
-        <v>7.1528751753155678E-2</v>
-      </c>
-      <c r="L368">
-        <v>0.87049285257094089</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>15</v>
       </c>
       <c r="B369">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C369">
         <v>5.0000000000000001E-3</v>
@@ -12138,28 +11193,13 @@
       <c r="G369">
         <v>0</v>
       </c>
-      <c r="H369">
-        <v>0.15194734970817697</v>
-      </c>
-      <c r="I369">
-        <v>0.11236013738697598</v>
-      </c>
-      <c r="J369">
-        <v>0.706915770092573</v>
-      </c>
-      <c r="K369">
-        <v>9.1530054644808748E-2</v>
-      </c>
-      <c r="L369">
-        <v>0.88860325621251068</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>15</v>
       </c>
       <c r="B370">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C370">
         <v>5.0000000000000001E-3</v>
@@ -12176,28 +11216,13 @@
       <c r="G370">
         <v>0</v>
       </c>
-      <c r="H370">
-        <v>0.19947376961886701</v>
-      </c>
-      <c r="I370">
-        <v>0.14398618344957609</v>
-      </c>
-      <c r="J370">
-        <v>0.57331783652087687</v>
-      </c>
-      <c r="K370">
-        <v>7.2196620583717355E-2</v>
-      </c>
-      <c r="L370">
-        <v>0.88629185091598228</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>15</v>
       </c>
       <c r="B371">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C371">
         <v>5.0000000000000001E-3</v>
@@ -12214,28 +11239,13 @@
       <c r="G371">
         <v>0</v>
       </c>
-      <c r="H371">
-        <v>0.26060539498030055</v>
-      </c>
-      <c r="I371">
-        <v>0.18151346787578843</v>
-      </c>
-      <c r="J371">
-        <v>0.46712123410790157</v>
-      </c>
-      <c r="K371">
-        <v>7.098765432098765E-2</v>
-      </c>
-      <c r="L371">
-        <v>0.88615319865319864</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>15</v>
       </c>
       <c r="B372">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C372">
         <v>0.01</v>
@@ -12252,28 +11262,13 @@
       <c r="G372">
         <v>0</v>
       </c>
-      <c r="H372">
-        <v>0.17111100912103577</v>
-      </c>
-      <c r="I372">
-        <v>0.12690067654528833</v>
-      </c>
-      <c r="J372">
-        <v>0.73148083095474192</v>
-      </c>
-      <c r="K372">
-        <v>0.11125827814569536</v>
-      </c>
-      <c r="L372">
-        <v>0.89171151776103341</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>15</v>
       </c>
       <c r="B373">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C373">
         <v>0.01</v>
@@ -12290,28 +11285,13 @@
       <c r="G373">
         <v>0</v>
       </c>
-      <c r="H373">
-        <v>0.2118739540484218</v>
-      </c>
-      <c r="I373">
-        <v>0.15292903773047237</v>
-      </c>
-      <c r="J373">
-        <v>0.59285744792917161</v>
-      </c>
-      <c r="K373">
-        <v>7.1755725190839698E-2</v>
-      </c>
-      <c r="L373">
-        <v>0.88619599578503683</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>15</v>
       </c>
       <c r="B374">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C374">
         <v>0.01</v>
@@ -12328,28 +11308,13 @@
       <c r="G374">
         <v>0</v>
       </c>
-      <c r="H374">
-        <v>0.26529583215861491</v>
-      </c>
-      <c r="I374">
-        <v>0.18473740287151511</v>
-      </c>
-      <c r="J374">
-        <v>0.46979214164746846</v>
-      </c>
-      <c r="K374">
-        <v>7.098765432098765E-2</v>
-      </c>
-      <c r="L374">
-        <v>0.88615319865319864</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>15</v>
       </c>
       <c r="B375">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C375">
         <v>0.1</v>
@@ -12366,28 +11331,13 @@
       <c r="G375">
         <v>0</v>
       </c>
-      <c r="H375">
-        <v>0.38762484368281913</v>
-      </c>
-      <c r="I375">
-        <v>0.27535835020690891</v>
-      </c>
-      <c r="J375">
-        <v>0.79837511463936095</v>
-      </c>
-      <c r="K375">
-        <v>0.11169513797634691</v>
-      </c>
-      <c r="L375">
-        <v>0.89178702306531576</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>15</v>
       </c>
       <c r="B376">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C376">
         <v>0.1</v>
@@ -12404,28 +11354,13 @@
       <c r="G376">
         <v>0</v>
       </c>
-      <c r="H376">
-        <v>0.37601721276715849</v>
-      </c>
-      <c r="I376">
-        <v>0.26331382895146466</v>
-      </c>
-      <c r="J376">
-        <v>0.62859045075130271</v>
-      </c>
-      <c r="K376">
-        <v>7.3381294964028773E-2</v>
-      </c>
-      <c r="L376">
-        <v>0.88607863974495216</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>15</v>
       </c>
       <c r="B377">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C377">
         <v>0.1</v>
@@ -12442,28 +11377,13 @@
       <c r="G377">
         <v>0</v>
       </c>
-      <c r="H377">
-        <v>0.35992188376930823</v>
-      </c>
-      <c r="I377">
-        <v>0.24689591968618349</v>
-      </c>
-      <c r="J377">
-        <v>0.48684681193443324</v>
-      </c>
-      <c r="K377">
-        <v>6.9209039548022599E-2</v>
-      </c>
-      <c r="L377">
-        <v>0.88533674339300938</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>15</v>
       </c>
       <c r="B378">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C378">
         <v>5.0000000000000001E-3</v>
@@ -12481,12 +11401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>15</v>
       </c>
       <c r="B379">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C379">
         <v>5.0000000000000001E-3</v>
@@ -12504,12 +11424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>15</v>
       </c>
       <c r="B380">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C380">
         <v>5.0000000000000001E-3</v>
@@ -12527,12 +11447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>15</v>
       </c>
       <c r="B381">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C381">
         <v>0.01</v>
@@ -12550,12 +11470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>15</v>
       </c>
       <c r="B382">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C382">
         <v>0.01</v>
@@ -12573,12 +11493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>15</v>
       </c>
       <c r="B383">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C383">
         <v>0.01</v>
@@ -12596,12 +11516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>15</v>
       </c>
       <c r="B384">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C384">
         <v>0.1</v>
@@ -12624,7 +11544,7 @@
         <v>15</v>
       </c>
       <c r="B385">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C385">
         <v>0.1</v>
@@ -12647,7 +11567,7 @@
         <v>15</v>
       </c>
       <c r="B386">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C386">
         <v>0.1</v>
@@ -12670,7 +11590,7 @@
         <v>15</v>
       </c>
       <c r="B387">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C387">
         <v>5.0000000000000001E-3</v>
@@ -12693,7 +11613,7 @@
         <v>15</v>
       </c>
       <c r="B388">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C388">
         <v>5.0000000000000001E-3</v>
@@ -12716,7 +11636,7 @@
         <v>15</v>
       </c>
       <c r="B389">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C389">
         <v>5.0000000000000001E-3</v>
@@ -12739,7 +11659,7 @@
         <v>15</v>
       </c>
       <c r="B390">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C390">
         <v>0.01</v>
@@ -12762,7 +11682,7 @@
         <v>15</v>
       </c>
       <c r="B391">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C391">
         <v>0.01</v>
@@ -12785,7 +11705,7 @@
         <v>15</v>
       </c>
       <c r="B392">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C392">
         <v>0.01</v>
@@ -12808,7 +11728,7 @@
         <v>15</v>
       </c>
       <c r="B393">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C393">
         <v>0.1</v>
@@ -12831,7 +11751,7 @@
         <v>15</v>
       </c>
       <c r="B394">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C394">
         <v>0.1</v>
@@ -12854,7 +11774,7 @@
         <v>15</v>
       </c>
       <c r="B395">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C395">
         <v>0.1</v>
@@ -12877,7 +11797,7 @@
         <v>15</v>
       </c>
       <c r="B396">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C396">
         <v>5.0000000000000001E-3</v>
@@ -12900,7 +11820,7 @@
         <v>15</v>
       </c>
       <c r="B397">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C397">
         <v>5.0000000000000001E-3</v>
@@ -12923,7 +11843,7 @@
         <v>15</v>
       </c>
       <c r="B398">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C398">
         <v>5.0000000000000001E-3</v>
@@ -12946,7 +11866,7 @@
         <v>15</v>
       </c>
       <c r="B399">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C399">
         <v>0.01</v>
@@ -12969,7 +11889,7 @@
         <v>15</v>
       </c>
       <c r="B400">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C400">
         <v>0.01</v>
@@ -12992,7 +11912,7 @@
         <v>15</v>
       </c>
       <c r="B401">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C401">
         <v>0.01</v>
@@ -13015,7 +11935,7 @@
         <v>15</v>
       </c>
       <c r="B402">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C402">
         <v>0.1</v>
@@ -13038,7 +11958,7 @@
         <v>15</v>
       </c>
       <c r="B403">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C403">
         <v>0.1</v>
@@ -13061,7 +11981,7 @@
         <v>15</v>
       </c>
       <c r="B404">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C404">
         <v>0.1</v>
@@ -13084,7 +12004,7 @@
         <v>15</v>
       </c>
       <c r="B405">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C405">
         <v>5.0000000000000001E-3</v>
@@ -13107,7 +12027,7 @@
         <v>15</v>
       </c>
       <c r="B406">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C406">
         <v>5.0000000000000001E-3</v>
@@ -13130,7 +12050,7 @@
         <v>15</v>
       </c>
       <c r="B407">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C407">
         <v>5.0000000000000001E-3</v>
@@ -13153,7 +12073,7 @@
         <v>15</v>
       </c>
       <c r="B408">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C408">
         <v>0.01</v>
@@ -13176,7 +12096,7 @@
         <v>15</v>
       </c>
       <c r="B409">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C409">
         <v>0.01</v>
@@ -13199,7 +12119,7 @@
         <v>15</v>
       </c>
       <c r="B410">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C410">
         <v>0.01</v>
@@ -13222,7 +12142,7 @@
         <v>15</v>
       </c>
       <c r="B411">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C411">
         <v>0.1</v>
@@ -13245,7 +12165,7 @@
         <v>15</v>
       </c>
       <c r="B412">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C412">
         <v>0.1</v>
@@ -13268,7 +12188,7 @@
         <v>15</v>
       </c>
       <c r="B413">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C413">
         <v>0.1</v>
@@ -13291,7 +12211,7 @@
         <v>15</v>
       </c>
       <c r="B414">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C414">
         <v>5.0000000000000001E-3</v>
@@ -13314,7 +12234,7 @@
         <v>15</v>
       </c>
       <c r="B415">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C415">
         <v>5.0000000000000001E-3</v>
@@ -13337,7 +12257,7 @@
         <v>15</v>
       </c>
       <c r="B416">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C416">
         <v>5.0000000000000001E-3</v>
@@ -13360,7 +12280,7 @@
         <v>15</v>
       </c>
       <c r="B417">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C417">
         <v>0.01</v>
@@ -13383,7 +12303,7 @@
         <v>15</v>
       </c>
       <c r="B418">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C418">
         <v>0.01</v>
@@ -13406,7 +12326,7 @@
         <v>15</v>
       </c>
       <c r="B419">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C419">
         <v>0.01</v>
@@ -13429,7 +12349,7 @@
         <v>15</v>
       </c>
       <c r="B420">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C420">
         <v>0.1</v>
@@ -13452,7 +12372,7 @@
         <v>15</v>
       </c>
       <c r="B421">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C421">
         <v>0.1</v>
@@ -13475,7 +12395,7 @@
         <v>15</v>
       </c>
       <c r="B422">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C422">
         <v>0.1</v>
@@ -13498,7 +12418,7 @@
         <v>15</v>
       </c>
       <c r="B423">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C423">
         <v>5.0000000000000001E-3</v>
@@ -13521,7 +12441,7 @@
         <v>15</v>
       </c>
       <c r="B424">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C424">
         <v>5.0000000000000001E-3</v>
@@ -13544,7 +12464,7 @@
         <v>15</v>
       </c>
       <c r="B425">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C425">
         <v>5.0000000000000001E-3</v>
@@ -13567,7 +12487,7 @@
         <v>15</v>
       </c>
       <c r="B426">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C426">
         <v>0.01</v>
@@ -13590,7 +12510,7 @@
         <v>15</v>
       </c>
       <c r="B427">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C427">
         <v>0.01</v>
@@ -13613,7 +12533,7 @@
         <v>15</v>
       </c>
       <c r="B428">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C428">
         <v>0.01</v>
@@ -13636,7 +12556,7 @@
         <v>15</v>
       </c>
       <c r="B429">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C429">
         <v>0.1</v>
@@ -13659,7 +12579,7 @@
         <v>15</v>
       </c>
       <c r="B430">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C430">
         <v>0.1</v>
@@ -13682,7 +12602,7 @@
         <v>15</v>
       </c>
       <c r="B431">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C431">
         <v>0.1</v>
@@ -13705,7 +12625,7 @@
         <v>15</v>
       </c>
       <c r="B432">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C432">
         <v>5.0000000000000001E-3</v>
@@ -13728,7 +12648,7 @@
         <v>15</v>
       </c>
       <c r="B433">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C433">
         <v>5.0000000000000001E-3</v>
@@ -13751,7 +12671,7 @@
         <v>15</v>
       </c>
       <c r="B434">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C434">
         <v>5.0000000000000001E-3</v>
@@ -13774,7 +12694,7 @@
         <v>15</v>
       </c>
       <c r="B435">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C435">
         <v>0.01</v>
@@ -13797,7 +12717,7 @@
         <v>15</v>
       </c>
       <c r="B436">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C436">
         <v>0.01</v>
@@ -13820,7 +12740,7 @@
         <v>15</v>
       </c>
       <c r="B437">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C437">
         <v>0.01</v>
@@ -13843,7 +12763,7 @@
         <v>15</v>
       </c>
       <c r="B438">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C438">
         <v>0.1</v>
@@ -13866,7 +12786,7 @@
         <v>15</v>
       </c>
       <c r="B439">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C439">
         <v>0.1</v>
@@ -13889,7 +12809,7 @@
         <v>15</v>
       </c>
       <c r="B440">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C440">
         <v>0.1</v>
@@ -13912,7 +12832,7 @@
         <v>15</v>
       </c>
       <c r="B441">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C441">
         <v>5.0000000000000001E-3</v>
@@ -13935,7 +12855,7 @@
         <v>15</v>
       </c>
       <c r="B442">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C442">
         <v>5.0000000000000001E-3</v>
@@ -13958,7 +12878,7 @@
         <v>15</v>
       </c>
       <c r="B443">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C443">
         <v>5.0000000000000001E-3</v>
@@ -13981,7 +12901,7 @@
         <v>15</v>
       </c>
       <c r="B444">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C444">
         <v>0.01</v>
@@ -14004,7 +12924,7 @@
         <v>15</v>
       </c>
       <c r="B445">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C445">
         <v>0.01</v>
@@ -14027,7 +12947,7 @@
         <v>15</v>
       </c>
       <c r="B446">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C446">
         <v>0.01</v>
@@ -14050,7 +12970,7 @@
         <v>15</v>
       </c>
       <c r="B447">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C447">
         <v>0.1</v>
@@ -14073,7 +12993,7 @@
         <v>15</v>
       </c>
       <c r="B448">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C448">
         <v>0.1</v>
@@ -14096,7 +13016,7 @@
         <v>15</v>
       </c>
       <c r="B449">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C449">
         <v>0.1</v>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
@@ -15463,11 +15463,21 @@
       <c r="G477" t="n">
         <v>0.0</v>
       </c>
-      <c r="H477"/>
-      <c r="I477"/>
-      <c r="J477"/>
-      <c r="K477"/>
-      <c r="L477"/>
+      <c r="H477" t="n">
+        <v>0.16896558628703753</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.1430102137047018</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0.9154520276128372</v>
+      </c>
+      <c r="K477" t="n">
+        <v>0.9153605015673981</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0.786292565354428</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
@@ -15547,11 +15557,21 @@
       <c r="G480" t="n">
         <v>0.0</v>
       </c>
-      <c r="H480"/>
-      <c r="I480"/>
-      <c r="J480"/>
-      <c r="K480"/>
-      <c r="L480"/>
+      <c r="H480" t="n">
+        <v>0.25233769569934494</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.21035464159538156</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.927688815050274</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0.9176470588235294</v>
+      </c>
+      <c r="L480" t="n">
+        <v>0.7872524752475247</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -15631,11 +15651,21 @@
       <c r="G483" t="n">
         <v>0.0</v>
       </c>
-      <c r="H483"/>
-      <c r="I483"/>
-      <c r="J483"/>
-      <c r="K483"/>
-      <c r="L483"/>
+      <c r="H483" t="n">
+        <v>0.5593927866834968</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.4523283050679273</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0.8897495818608827</v>
+      </c>
+      <c r="K483" t="n">
+        <v>0.9344692005242464</v>
+      </c>
+      <c r="L483" t="n">
+        <v>0.8070153142276164</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
@@ -14707,11 +14707,21 @@
       <c r="G450" t="n">
         <v>0.0</v>
       </c>
-      <c r="H450"/>
-      <c r="I450"/>
-      <c r="J450"/>
-      <c r="K450"/>
-      <c r="L450"/>
+      <c r="H450" t="n">
+        <v>0.16345003546846468</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.14034531605557235</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.9154520276128372</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.5202127659574468</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0.6782776349614396</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -14735,11 +14745,21 @@
       <c r="G451" t="n">
         <v>0.0</v>
       </c>
-      <c r="H451"/>
-      <c r="I451"/>
-      <c r="J451"/>
-      <c r="K451"/>
-      <c r="L451"/>
+      <c r="H451" t="n">
+        <v>0.175210949642589</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.14987405210240162</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.9370514976431527</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.6075085324232082</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0.6824146981627297</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
@@ -14763,11 +14783,21 @@
       <c r="G452" t="n">
         <v>0.0</v>
       </c>
-      <c r="H452"/>
-      <c r="I452"/>
-      <c r="J452"/>
-      <c r="K452"/>
-      <c r="L452"/>
+      <c r="H452" t="n">
+        <v>0.1817083245412551</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.15482797963792153</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.9545256221501056</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.7445008460236887</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0.6822553271732982</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
@@ -14791,11 +14821,21 @@
       <c r="G453" t="n">
         <v>0.0</v>
       </c>
-      <c r="H453"/>
-      <c r="I453"/>
-      <c r="J453"/>
-      <c r="K453"/>
-      <c r="L453"/>
+      <c r="H453" t="n">
+        <v>0.24394706049373777</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.20647805889451518</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.927688815050274</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.5306971904266389</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0.6791942853465474</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
@@ -14819,11 +14859,21 @@
       <c r="G454" t="n">
         <v>0.0</v>
       </c>
-      <c r="H454"/>
-      <c r="I454"/>
-      <c r="J454"/>
-      <c r="K454"/>
-      <c r="L454"/>
+      <c r="H454" t="n">
+        <v>0.256392241850966</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.21628238943500128</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.9403201530819466</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.6140939597315436</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0.6830706138664616</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -14847,11 +14897,21 @@
       <c r="G455" t="n">
         <v>0.0</v>
       </c>
-      <c r="H455"/>
-      <c r="I455"/>
-      <c r="J455"/>
-      <c r="K455"/>
-      <c r="L455"/>
+      <c r="H455" t="n">
+        <v>0.26166779245480887</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.22033645699857313</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.9633092585036139</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.7508250825082509</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0.6828992072480181</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
@@ -14875,11 +14935,21 @@
       <c r="G456" t="n">
         <v>0.0</v>
       </c>
-      <c r="H456"/>
-      <c r="I456"/>
-      <c r="J456"/>
-      <c r="K456"/>
-      <c r="L456"/>
+      <c r="H456" t="n">
+        <v>0.5400137997836869</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.44390377205274983</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.8897495818608827</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.6746597537265068</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0.702213010630474</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
@@ -14903,11 +14973,21 @@
       <c r="G457" t="n">
         <v>0.0</v>
       </c>
-      <c r="H457"/>
-      <c r="I457"/>
-      <c r="J457"/>
-      <c r="K457"/>
-      <c r="L457"/>
+      <c r="H457" t="n">
+        <v>0.5487276279530684</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.4491879135771504</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.8797104664483607</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.7037617554858934</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0.6980425643720441</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
@@ -14931,11 +15011,21 @@
       <c r="G458" t="n">
         <v>0.0</v>
       </c>
-      <c r="H458"/>
-      <c r="I458"/>
-      <c r="J458"/>
-      <c r="K458"/>
-      <c r="L458"/>
+      <c r="H458" t="n">
+        <v>0.5527250110407343</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.4514631584062032</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.8808034523183178</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0.6976669244650683</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
@@ -14959,11 +15049,21 @@
       <c r="G459" t="n">
         <v>0.0</v>
       </c>
-      <c r="H459"/>
-      <c r="I459"/>
-      <c r="J459"/>
-      <c r="K459"/>
-      <c r="L459"/>
+      <c r="H459" t="n">
+        <v>0.16442853880579925</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.14102359279852314</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.9154520276128372</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.42872340425531913</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0.7097686375321337</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
@@ -14987,11 +15087,21 @@
       <c r="G460" t="n">
         <v>0.0</v>
       </c>
-      <c r="H460"/>
-      <c r="I460"/>
-      <c r="J460"/>
-      <c r="K460"/>
-      <c r="L460"/>
+      <c r="H460" t="n">
+        <v>0.176268876254528</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.15060194679266695</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.9370514976431527</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.7203389830508474</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0.7175361407919547</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -15015,11 +15125,21 @@
       <c r="G461" t="n">
         <v>0.0</v>
       </c>
-      <c r="H461"/>
-      <c r="I461"/>
-      <c r="J461"/>
-      <c r="K461"/>
-      <c r="L461"/>
+      <c r="H461" t="n">
+        <v>0.18281625446546193</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.15558016611909198</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.9545256221501056</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.931924882629108</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0.7186761229314421</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
@@ -15043,11 +15163,21 @@
       <c r="G462" t="n">
         <v>0.0</v>
       </c>
-      <c r="H462"/>
-      <c r="I462"/>
-      <c r="J462"/>
-      <c r="K462"/>
-      <c r="L462"/>
+      <c r="H462" t="n">
+        <v>0.24542569364489533</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.2074665292086424</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.927688815050274</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.441207075962539</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0.7107278460647404</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
@@ -15071,11 +15201,21 @@
       <c r="G463" t="n">
         <v>0.0</v>
       </c>
-      <c r="H463"/>
-      <c r="I463"/>
-      <c r="J463"/>
-      <c r="K463"/>
-      <c r="L463"/>
+      <c r="H463" t="n">
+        <v>0.25796580437700345</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.21732433164638146</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.9403201530819466</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0.7182132746146587</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
@@ -15099,11 +15239,21 @@
       <c r="G464" t="n">
         <v>0.0</v>
       </c>
-      <c r="H464"/>
-      <c r="I464"/>
-      <c r="J464"/>
-      <c r="K464"/>
-      <c r="L464"/>
+      <c r="H464" t="n">
+        <v>0.2632807030364005</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.2213992603137734</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.9633092585036139</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.9342403628117913</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0.719347406438757</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -15127,11 +15277,21 @@
       <c r="G465" t="n">
         <v>0.0</v>
       </c>
-      <c r="H465"/>
-      <c r="I465"/>
-      <c r="J465"/>
-      <c r="K465"/>
-      <c r="L465"/>
+      <c r="H465" t="n">
+        <v>0.5434348315519023</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.44601756062708553</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0.8897495818608827</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0.6221498371335505</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0.7351152689609088</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
@@ -15155,11 +15315,21 @@
       <c r="G466" t="n">
         <v>0.0</v>
       </c>
-      <c r="H466"/>
-      <c r="I466"/>
-      <c r="J466"/>
-      <c r="K466"/>
-      <c r="L466"/>
+      <c r="H466" t="n">
+        <v>0.5522660572563556</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.45133129959425683</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.8797104664483607</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0.8024439918533605</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0.7337930145637325</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
@@ -15183,11 +15353,21 @@
       <c r="G467" t="n">
         <v>0.0</v>
       </c>
-      <c r="H467"/>
-      <c r="I467"/>
-      <c r="J467"/>
-      <c r="K467"/>
-      <c r="L467"/>
+      <c r="H467" t="n">
+        <v>0.5563180075663299</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.45361918368923715</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0.8808034523183178</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0.9298892988929889</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0.7346210237776503</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
@@ -15211,11 +15391,21 @@
       <c r="G468" t="n">
         <v>0.0</v>
       </c>
-      <c r="H468"/>
-      <c r="I468"/>
-      <c r="J468"/>
-      <c r="K468"/>
-      <c r="L468"/>
+      <c r="H468" t="n">
+        <v>0.16538648671250603</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.14167609748535243</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.9154520276128372</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0.42193548387096774</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0.7338632750397456</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -15239,11 +15429,21 @@
       <c r="G469" t="n">
         <v>0.0</v>
       </c>
-      <c r="H469"/>
-      <c r="I469"/>
-      <c r="J469"/>
-      <c r="K469"/>
-      <c r="L469"/>
+      <c r="H469" t="n">
+        <v>0.17730372333332928</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.15130494975056735</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0.9370514976431527</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0.9385342789598109</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0.7440442868694408</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
@@ -15267,11 +15467,21 @@
       <c r="G470" t="n">
         <v>0.0</v>
       </c>
-      <c r="H470"/>
-      <c r="I470"/>
-      <c r="J470"/>
-      <c r="K470"/>
-      <c r="L470"/>
+      <c r="H470" t="n">
+        <v>0.17926536458544567</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.15278153643628023</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0.9377934559037289</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0.9363207547169812</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0.7440283652649913</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -15295,11 +15505,21 @@
       <c r="G471" t="n">
         <v>0.0</v>
       </c>
-      <c r="H471"/>
-      <c r="I471"/>
-      <c r="J471"/>
-      <c r="K471"/>
-      <c r="L471"/>
+      <c r="H471" t="n">
+        <v>0.2468774513749404</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.20843308669830657</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0.927688815050274</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0.4371859296482412</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0.7348446255731024</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
@@ -15323,11 +15543,21 @@
       <c r="G472" t="n">
         <v>0.0</v>
       </c>
-      <c r="H472"/>
-      <c r="I472"/>
-      <c r="J472"/>
-      <c r="K472"/>
-      <c r="L472"/>
+      <c r="H472" t="n">
+        <v>0.259509131018929</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.2183446258165151</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0.9403201530819466</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0.9406392694063926</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0.7447391358485868</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -15351,11 +15581,21 @@
       <c r="G473" t="n">
         <v>0.0</v>
       </c>
-      <c r="H473"/>
-      <c r="I473"/>
-      <c r="J473"/>
-      <c r="K473"/>
-      <c r="L473"/>
+      <c r="H473" t="n">
+        <v>0.25983558252359384</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.2186089712694985</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0.9401020115912568</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0.9384965831435079</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0.7447232426374447</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -15379,11 +15619,21 @@
       <c r="G474" t="n">
         <v>0.0</v>
       </c>
-      <c r="H474"/>
-      <c r="I474"/>
-      <c r="J474"/>
-      <c r="K474"/>
-      <c r="L474"/>
+      <c r="H474" t="n">
+        <v>0.5468211544702427</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.4481322323866136</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0.8897495818608827</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0.6222397476340694</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0.7555803571428571</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -15407,11 +15657,21 @@
       <c r="G475" t="n">
         <v>0.0</v>
       </c>
-      <c r="H475"/>
-      <c r="I475"/>
-      <c r="J475"/>
-      <c r="K475"/>
-      <c r="L475"/>
+      <c r="H475" t="n">
+        <v>0.5557744919732001</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.45347582050692326</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.8797104664483607</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0.9298029556650246</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0.7605175930647629</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
@@ -15435,11 +15695,21 @@
       <c r="G476" t="n">
         <v>0.0</v>
       </c>
-      <c r="H476"/>
-      <c r="I476"/>
-      <c r="J476"/>
-      <c r="K476"/>
-      <c r="L476"/>
+      <c r="H476" t="n">
+        <v>0.5557384496423556</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.4534680641123021</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.8795245370322484</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0.9286592865928659</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0.760502326767387</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -15501,11 +15771,21 @@
       <c r="G478" t="n">
         <v>0.0</v>
       </c>
-      <c r="H478"/>
-      <c r="I478"/>
-      <c r="J478"/>
-      <c r="K478"/>
-      <c r="L478"/>
+      <c r="H478" t="n">
+        <v>0.17381550811461344</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.14721730784808604</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.917935217390089</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0.933806146572104</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0.7913167879579524</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -15529,11 +15809,21 @@
       <c r="G479" t="n">
         <v>0.0</v>
       </c>
-      <c r="H479"/>
-      <c r="I479"/>
-      <c r="J479"/>
-      <c r="K479"/>
-      <c r="L479"/>
+      <c r="H479" t="n">
+        <v>0.175243129547822</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.14851704763600662</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0.9168657053416664</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0.9316037735849056</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0.7913038069171435</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -15595,11 +15885,21 @@
       <c r="G481" t="n">
         <v>0.0</v>
       </c>
-      <c r="H481"/>
-      <c r="I481"/>
-      <c r="J481"/>
-      <c r="K481"/>
-      <c r="L481"/>
+      <c r="H481" t="n">
+        <v>0.2556798983115835</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.213162937310739</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0.9275473824844159</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0.9360730593607306</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0.7920557838376292</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
@@ -15623,11 +15923,21 @@
       <c r="G482" t="n">
         <v>0.0</v>
       </c>
-      <c r="H482"/>
-      <c r="I482"/>
-      <c r="J482"/>
-      <c r="K482"/>
-      <c r="L482"/>
+      <c r="H482" t="n">
+        <v>0.25595642580467454</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.2133969800137852</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0.9272260666974681</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0.9339407744874715</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0.7920428366851379</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -15689,11 +15999,21 @@
       <c r="G484" t="n">
         <v>0.0</v>
       </c>
-      <c r="H484"/>
-      <c r="I484"/>
-      <c r="J484"/>
-      <c r="K484"/>
-      <c r="L484"/>
+      <c r="H484" t="n">
+        <v>0.5595327474412021</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.45245947970830325</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.889759861318378</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0.9344692005242464</v>
+      </c>
+      <c r="L484" t="n">
+        <v>0.8070153142276164</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -15717,11 +16037,21 @@
       <c r="G485" t="n">
         <v>0.0</v>
       </c>
-      <c r="H485"/>
-      <c r="I485"/>
-      <c r="J485"/>
-      <c r="K485"/>
-      <c r="L485"/>
+      <c r="H485" t="n">
+        <v>0.5595246852201746</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.45247534090721014</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.8896340573524082</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0.9332460732984293</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0.8070030503304525</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -15745,11 +16075,21 @@
       <c r="G486" t="n">
         <v>0.0</v>
       </c>
-      <c r="H486"/>
-      <c r="I486"/>
-      <c r="J486"/>
-      <c r="K486"/>
-      <c r="L486"/>
+      <c r="H486" t="n">
+        <v>0.08563884232406221</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.0678160873103005</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.845970275234966</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.3288590604026846</v>
+      </c>
+      <c r="L486" t="n">
+        <v>0.8716189729517836</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -15773,11 +16113,21 @@
       <c r="G487" t="n">
         <v>0.0</v>
       </c>
-      <c r="H487"/>
-      <c r="I487"/>
-      <c r="J487"/>
-      <c r="K487"/>
-      <c r="L487"/>
+      <c r="H487" t="n">
+        <v>0.09250957017585741</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.07245925178692919</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0.8499683214276368</v>
+      </c>
+      <c r="K487" t="n">
+        <v>0.4016393442622951</v>
+      </c>
+      <c r="L487" t="n">
+        <v>0.8729635376260667</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
@@ -15829,11 +16179,21 @@
       <c r="G489" t="n">
         <v>0.0</v>
       </c>
-      <c r="H489"/>
-      <c r="I489"/>
-      <c r="J489"/>
-      <c r="K489"/>
-      <c r="L489"/>
+      <c r="H489" t="n">
+        <v>0.12599593678294319</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.09715870305339777</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.8802105368805823</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0.36075949367088606</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0.8743115656963021</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
@@ -15857,11 +16217,21 @@
       <c r="G490" t="n">
         <v>0.0</v>
       </c>
-      <c r="H490"/>
-      <c r="I490"/>
-      <c r="J490"/>
-      <c r="K490"/>
-      <c r="L490"/>
+      <c r="H490" t="n">
+        <v>0.1353411650902339</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.10271243512498686</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.9067641681404212</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0.4351145038167939</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0.8756325418450759</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
@@ -15913,11 +16283,21 @@
       <c r="G492" t="n">
         <v>0.0</v>
       </c>
-      <c r="H492"/>
-      <c r="I492"/>
-      <c r="J492"/>
-      <c r="K492"/>
-      <c r="L492"/>
+      <c r="H492" t="n">
+        <v>0.3948688168829671</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.2810087141025503</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.8763285752182395</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.39943342776203966</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0.8787398454527442</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
@@ -15941,11 +16321,21 @@
       <c r="G493" t="n">
         <v>0.0</v>
       </c>
-      <c r="H493"/>
-      <c r="I493"/>
-      <c r="J493"/>
-      <c r="K493"/>
-      <c r="L493"/>
+      <c r="H493" t="n">
+        <v>0.4047024820389978</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.2862981313615166</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0.8729334516806372</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0.47157190635451507</v>
+      </c>
+      <c r="L493" t="n">
+        <v>0.880023524799059</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
@@ -15997,11 +16387,21 @@
       <c r="G495" t="n">
         <v>0.0</v>
       </c>
-      <c r="H495"/>
-      <c r="I495"/>
-      <c r="J495"/>
-      <c r="K495"/>
-      <c r="L495"/>
+      <c r="H495" t="n">
+        <v>0.08618136405213168</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.06813859586323355</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0.845970275234966</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0.8837938467568097</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
@@ -16025,11 +16425,21 @@
       <c r="G496" t="n">
         <v>0.0</v>
       </c>
-      <c r="H496"/>
-      <c r="I496"/>
-      <c r="J496"/>
-      <c r="K496"/>
-      <c r="L496"/>
+      <c r="H496" t="n">
+        <v>0.09310431252232461</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.07280377061280782</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.8499683214276368</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0.8863506567675614</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
@@ -16053,11 +16463,21 @@
       <c r="G497" t="n">
         <v>0.0</v>
       </c>
-      <c r="H497"/>
-      <c r="I497"/>
-      <c r="J497"/>
-      <c r="K497"/>
-      <c r="L497"/>
+      <c r="H497" t="n">
+        <v>0.09602494357558278</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.07489001561820201</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0.8827626173693413</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0.8874858650584244</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
@@ -16081,11 +16501,21 @@
       <c r="G498" t="n">
         <v>0.0</v>
       </c>
-      <c r="H498"/>
-      <c r="I498"/>
-      <c r="J498"/>
-      <c r="K498"/>
-      <c r="L498"/>
+      <c r="H498" t="n">
+        <v>0.12683627431725306</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.09761777702640036</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.8802105368805823</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0.33015873015873015</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0.8865290068829892</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
@@ -16109,11 +16539,21 @@
       <c r="G499" t="n">
         <v>0.0</v>
       </c>
-      <c r="H499"/>
-      <c r="I499"/>
-      <c r="J499"/>
-      <c r="K499"/>
-      <c r="L499"/>
+      <c r="H499" t="n">
+        <v>0.13629522890994672</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.10319906660622774</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0.9067641681404212</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0.8890162368672397</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
@@ -16165,11 +16605,21 @@
       <c r="G501" t="n">
         <v>0.0</v>
       </c>
-      <c r="H501"/>
-      <c r="I501"/>
-      <c r="J501"/>
-      <c r="K501"/>
-      <c r="L501"/>
+      <c r="H501" t="n">
+        <v>0.3979774883330109</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.2823345735818796</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0.8763285752182395</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0.3721590909090909</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0.8910459587955626</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
@@ -16193,11 +16643,21 @@
       <c r="G502" t="n">
         <v>0.0</v>
       </c>
-      <c r="H502"/>
-      <c r="I502"/>
-      <c r="J502"/>
-      <c r="K502"/>
-      <c r="L502"/>
+      <c r="H502" t="n">
+        <v>0.40794723614905687</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.2876512345800598</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0.8729334516806372</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0.6287128712871287</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0.8934205463639862</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
@@ -16249,11 +16709,21 @@
       <c r="G504" t="n">
         <v>0.0</v>
       </c>
-      <c r="H504"/>
-      <c r="I504"/>
-      <c r="J504"/>
-      <c r="K504"/>
-      <c r="L504"/>
+      <c r="H504" t="n">
+        <v>0.089390843011153</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.0684376082096577</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0.845970275234966</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0.359504132231405</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0.8892981775882125</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
@@ -16277,11 +16747,21 @@
       <c r="G505" t="n">
         <v>0.0</v>
       </c>
-      <c r="H505"/>
-      <c r="I505"/>
-      <c r="J505"/>
-      <c r="K505"/>
-      <c r="L505"/>
+      <c r="H505" t="n">
+        <v>0.09658437588410368</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.07312396232521068</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0.8499683214276368</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0.9120879120879121</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0.8916933509135431</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
@@ -16305,11 +16785,21 @@
       <c r="G506" t="n">
         <v>0.0</v>
       </c>
-      <c r="H506"/>
-      <c r="I506"/>
-      <c r="J506"/>
-      <c r="K506"/>
-      <c r="L506"/>
+      <c r="H506" t="n">
+        <v>0.09690446791647168</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.07330445170917395</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.8523467658612625</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0.8918409647635199</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -16333,11 +16823,21 @@
       <c r="G507" t="n">
         <v>0.0</v>
       </c>
-      <c r="H507"/>
-      <c r="I507"/>
-      <c r="J507"/>
-      <c r="K507"/>
-      <c r="L507"/>
+      <c r="H507" t="n">
+        <v>0.1316155561247546</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.0980530960712426</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0.8802105368805823</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0.39615384615384613</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0.892023346303502</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -16361,11 +16861,21 @@
       <c r="G508" t="n">
         <v>0.0</v>
       </c>
-      <c r="H508"/>
-      <c r="I508"/>
-      <c r="J508"/>
-      <c r="K508"/>
-      <c r="L508"/>
+      <c r="H508" t="n">
+        <v>0.14148547282390847</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.10366136724045816</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.9067641681404212</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0.908256880733945</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0.8943488943488943</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -16389,11 +16899,21 @@
       <c r="G509" t="n">
         <v>0.0</v>
       </c>
-      <c r="H509"/>
-      <c r="I509"/>
-      <c r="J509"/>
-      <c r="K509"/>
-      <c r="L509"/>
+      <c r="H509" t="n">
+        <v>0.14366998818637472</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.10455925135799615</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0.907847788884713</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0.911504424778761</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0.8950255343294874</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -16417,11 +16937,21 @@
       <c r="G510" t="n">
         <v>0.0</v>
       </c>
-      <c r="H510"/>
-      <c r="I510"/>
-      <c r="J510"/>
-      <c r="K510"/>
-      <c r="L510"/>
+      <c r="H510" t="n">
+        <v>0.413438370775736</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.28365653798079743</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.8763285752182395</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.4391891891891892</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0.896551724137931</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -16445,11 +16975,21 @@
       <c r="G511" t="n">
         <v>0.0</v>
       </c>
-      <c r="H511"/>
-      <c r="I511"/>
-      <c r="J511"/>
-      <c r="K511"/>
-      <c r="L511"/>
+      <c r="H511" t="n">
+        <v>0.4238535471827558</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.2890015707637562</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.8729334516806372</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0.863013698630137</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0.898743814236772</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -16473,11 +17013,21 @@
       <c r="G512" t="n">
         <v>0.0</v>
       </c>
-      <c r="H512"/>
-      <c r="I512"/>
-      <c r="J512"/>
-      <c r="K512"/>
-      <c r="L512"/>
+      <c r="H512" t="n">
+        <v>0.42395004548029985</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.289057887812438</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.8729795271984109</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0.863013698630137</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0.898743814236772</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -16501,11 +17051,21 @@
       <c r="G513" t="n">
         <v>0.0</v>
       </c>
-      <c r="H513"/>
-      <c r="I513"/>
-      <c r="J513"/>
-      <c r="K513"/>
-      <c r="L513"/>
+      <c r="H513" t="n">
+        <v>0.090501008958004</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.06911550849321277</v>
+      </c>
+      <c r="J513" t="n">
+        <v>0.845970275234966</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0.9120879120879121</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0.905066867583349</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -16529,11 +17089,21 @@
       <c r="G514" t="n">
         <v>0.0</v>
       </c>
-      <c r="H514"/>
-      <c r="I514"/>
-      <c r="J514"/>
-      <c r="K514"/>
-      <c r="L514"/>
+      <c r="H514" t="n">
+        <v>0.09188639324083281</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.06999091299924086</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.8482333471260266</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0.9120879120879121</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0.905066867583349</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -16557,11 +17127,21 @@
       <c r="G515" t="n">
         <v>0.0</v>
       </c>
-      <c r="H515"/>
-      <c r="I515"/>
-      <c r="J515"/>
-      <c r="K515"/>
-      <c r="L515"/>
+      <c r="H515" t="n">
+        <v>0.0921296243188075</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.07015291341831255</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0.8478635246408195</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0.9052373775433308</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -16585,11 +17165,21 @@
       <c r="G516" t="n">
         <v>0.0</v>
       </c>
-      <c r="H516"/>
-      <c r="I516"/>
-      <c r="J516"/>
-      <c r="K516"/>
-      <c r="L516"/>
+      <c r="H516" t="n">
+        <v>0.1333223069740182</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.0989788817584781</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0.8802105368805823</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.908256880733945</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0.9077679077679077</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -16613,11 +17203,21 @@
       <c r="G517" t="n">
         <v>0.0</v>
       </c>
-      <c r="H517"/>
-      <c r="I517"/>
-      <c r="J517"/>
-      <c r="K517"/>
-      <c r="L517"/>
+      <c r="H517" t="n">
+        <v>0.13382251398675535</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.09935430548923808</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0.8802105368805823</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0.908256880733945</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0.9077679077679077</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -16641,11 +17241,21 @@
       <c r="G518" t="n">
         <v>0.0</v>
       </c>
-      <c r="H518"/>
-      <c r="I518"/>
-      <c r="J518"/>
-      <c r="K518"/>
-      <c r="L518"/>
+      <c r="H518" t="n">
+        <v>0.13463283118105318</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.09989519425269036</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.874947107661075</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0.9082829046898638</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -16669,11 +17279,21 @@
       <c r="G519" t="n">
         <v>0.0</v>
       </c>
-      <c r="H519"/>
-      <c r="I519"/>
-      <c r="J519"/>
-      <c r="K519"/>
-      <c r="L519"/>
+      <c r="H519" t="n">
+        <v>0.41994919963277116</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.286250773694323</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.8763285752182395</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0.9105582985187999</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -16697,11 +17317,21 @@
       <c r="G520" t="n">
         <v>0.0</v>
       </c>
-      <c r="H520"/>
-      <c r="I520"/>
-      <c r="J520"/>
-      <c r="K520"/>
-      <c r="L520"/>
+      <c r="H520" t="n">
+        <v>0.4204222785915199</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.2865018298669903</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.8763285752182395</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+      <c r="L520" t="n">
+        <v>0.9105582985187999</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -16725,11 +17355,21 @@
       <c r="G521" t="n">
         <v>0.0</v>
       </c>
-      <c r="H521"/>
-      <c r="I521"/>
-      <c r="J521"/>
-      <c r="K521"/>
-      <c r="L521"/>
+      <c r="H521" t="n">
+        <v>0.4203619950267669</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.28644134904705415</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.8761157186835439</v>
+      </c>
+      <c r="K521" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+      <c r="L521" t="n">
+        <v>0.9105582985187999</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity).xlsx
@@ -19409,11 +19409,21 @@
       <c r="G594" t="n">
         <v>0.0</v>
       </c>
-      <c r="H594"/>
-      <c r="I594"/>
-      <c r="J594"/>
-      <c r="K594"/>
-      <c r="L594"/>
+      <c r="H594" t="n">
+        <v>0.38011850620757043</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.32156712638572876</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.9123407056321989</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0.9706896551724138</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0.6902010050251256</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -19437,11 +19447,21 @@
       <c r="G595" t="n">
         <v>0.0</v>
       </c>
-      <c r="H595"/>
-      <c r="I595"/>
-      <c r="J595"/>
-      <c r="K595"/>
-      <c r="L595"/>
+      <c r="H595" t="n">
+        <v>0.3881853480056075</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.3270220117558246</v>
+      </c>
+      <c r="J595" t="n">
+        <v>0.9104111829870422</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0.6910691823899371</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -19493,11 +19513,21 @@
       <c r="G597" t="n">
         <v>0.0</v>
       </c>
-      <c r="H597"/>
-      <c r="I597"/>
-      <c r="J597"/>
-      <c r="K597"/>
-      <c r="L597"/>
+      <c r="H597" t="n">
+        <v>0.49903290145720575</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.4126770350680919</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0.8844243231580867</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0.9351851851851852</v>
+      </c>
+      <c r="L597" t="n">
+        <v>0.6958841463414634</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
@@ -19521,11 +19551,21 @@
       <c r="G598" t="n">
         <v>0.0</v>
       </c>
-      <c r="H598"/>
-      <c r="I598"/>
-      <c r="J598"/>
-      <c r="K598"/>
-      <c r="L598"/>
+      <c r="H598" t="n">
+        <v>0.5097779619182066</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.42104244144356545</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0.8807567888857353</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0.9321824907521579</v>
+      </c>
+      <c r="L598" t="n">
+        <v>0.6979412327108165</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
@@ -19577,11 +19617,21 @@
       <c r="G600" t="n">
         <v>0.0</v>
       </c>
-      <c r="H600"/>
-      <c r="I600"/>
-      <c r="J600"/>
-      <c r="K600"/>
-      <c r="L600"/>
+      <c r="H600" t="n">
+        <v>0.5213826062484477</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.41821880756241503</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0.5861423656810953</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0.6986374565856265</v>
+      </c>
+      <c r="L600" t="n">
+        <v>0.7742415928509838</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
@@ -19605,11 +19655,21 @@
       <c r="G601" t="n">
         <v>0.0</v>
       </c>
-      <c r="H601"/>
-      <c r="I601"/>
-      <c r="J601"/>
-      <c r="K601"/>
-      <c r="L601"/>
+      <c r="H601" t="n">
+        <v>0.48637309446461324</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0.38869219461668386</v>
+      </c>
+      <c r="J601" t="n">
+        <v>0.540372168283071</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0.6471241394625805</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0.7848628823872634</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="s">
@@ -19661,11 +19721,21 @@
       <c r="G603" t="n">
         <v>0.0</v>
       </c>
-      <c r="H603"/>
-      <c r="I603"/>
-      <c r="J603"/>
-      <c r="K603"/>
-      <c r="L603"/>
+      <c r="H603" t="n">
+        <v>0.3823497878761381</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0.32309551718907115</v>
+      </c>
+      <c r="J603" t="n">
+        <v>0.9123407056321989</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0.9706896551724138</v>
+      </c>
+      <c r="L603" t="n">
+        <v>0.7263819095477387</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
@@ -19689,11 +19759,21 @@
       <c r="G604" t="n">
         <v>0.0</v>
       </c>
-      <c r="H604"/>
-      <c r="I604"/>
-      <c r="J604"/>
-      <c r="K604"/>
-      <c r="L604"/>
+      <c r="H604" t="n">
+        <v>0.3904948922600501</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.32857834549222686</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0.9104111829870422</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0.9730639730639731</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0.7270841192003018</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -19745,11 +19825,21 @@
       <c r="G606" t="n">
         <v>0.0</v>
       </c>
-      <c r="H606"/>
-      <c r="I606"/>
-      <c r="J606"/>
-      <c r="K606"/>
-      <c r="L606"/>
+      <c r="H606" t="n">
+        <v>0.5021747692515613</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0.41466692112629105</v>
+      </c>
+      <c r="J606" t="n">
+        <v>0.8844243231580867</v>
+      </c>
+      <c r="K606" t="n">
+        <v>0.9351851851851852</v>
+      </c>
+      <c r="L606" t="n">
+        <v>0.7324695121951219</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
@@ -19773,11 +19863,21 @@
       <c r="G607" t="n">
         <v>0.0</v>
       </c>
-      <c r="H607"/>
-      <c r="I607"/>
-      <c r="J607"/>
-      <c r="K607"/>
-      <c r="L607"/>
+      <c r="H607" t="n">
+        <v>0.5130073192020291</v>
+      </c>
+      <c r="I607" t="n">
+        <v>0.4230734575625273</v>
+      </c>
+      <c r="J607" t="n">
+        <v>0.8807567888857353</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0.9355246523388117</v>
+      </c>
+      <c r="L607" t="n">
+        <v>0.7339741549430263</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
@@ -19829,11 +19929,21 @@
       <c r="G609" t="n">
         <v>0.0</v>
       </c>
-      <c r="H609"/>
-      <c r="I609"/>
-      <c r="J609"/>
-      <c r="K609"/>
-      <c r="L609"/>
+      <c r="H609" t="n">
+        <v>0.525131509760614</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0.42026752851169413</v>
+      </c>
+      <c r="J609" t="n">
+        <v>0.5861423656810953</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0.71001221001221</v>
+      </c>
+      <c r="L609" t="n">
+        <v>0.8039171203871749</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
@@ -19857,11 +19967,21 @@
       <c r="G610" t="n">
         <v>0.0</v>
       </c>
-      <c r="H610"/>
-      <c r="I610"/>
-      <c r="J610"/>
-      <c r="K610"/>
-      <c r="L610"/>
+      <c r="H610" t="n">
+        <v>0.48990977323459933</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0.3906029489080301</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0.540372168283071</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0.6867369589345172</v>
+      </c>
+      <c r="L610" t="n">
+        <v>0.8104838709677419</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -19913,11 +20033,21 @@
       <c r="G612" t="n">
         <v>0.0</v>
       </c>
-      <c r="H612"/>
-      <c r="I612"/>
-      <c r="J612"/>
-      <c r="K612"/>
-      <c r="L612"/>
+      <c r="H612" t="n">
+        <v>0.38455415334605153</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.3246303998019212</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0.9123407056321989</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="L612" t="n">
+        <v>0.7518527823137797</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
@@ -19941,11 +20071,21 @@
       <c r="G613" t="n">
         <v>0.0</v>
       </c>
-      <c r="H613"/>
-      <c r="I613"/>
-      <c r="J613"/>
-      <c r="K613"/>
-      <c r="L613"/>
+      <c r="H613" t="n">
+        <v>0.3927782330341543</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0.3301422006966366</v>
+      </c>
+      <c r="J613" t="n">
+        <v>0.9104111829870422</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0.9713322091062394</v>
+      </c>
+      <c r="L613" t="n">
+        <v>0.752561765260577</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -19997,11 +20137,21 @@
       <c r="G615" t="n">
         <v>0.0</v>
       </c>
-      <c r="H615"/>
-      <c r="I615"/>
-      <c r="J615"/>
-      <c r="K615"/>
-      <c r="L615"/>
+      <c r="H615" t="n">
+        <v>0.5052850907873817</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.4166629113791644</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0.8844243231580867</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0.9463806970509383</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0.7584105623968516</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -20025,11 +20175,21 @@
       <c r="G616" t="n">
         <v>0.0</v>
       </c>
-      <c r="H616"/>
-      <c r="I616"/>
-      <c r="J616"/>
-      <c r="K616"/>
-      <c r="L616"/>
+      <c r="H616" t="n">
+        <v>0.5162045949918995</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.4251111185434582</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0.8807567888857353</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0.9427083333333334</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0.7592168827866769</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -20081,11 +20241,21 @@
       <c r="G618" t="n">
         <v>0.0</v>
       </c>
-      <c r="H618"/>
-      <c r="I618"/>
-      <c r="J618"/>
-      <c r="K618"/>
-      <c r="L618"/>
+      <c r="H618" t="n">
+        <v>0.528934320729364</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.4223176577092402</v>
+      </c>
+      <c r="J618" t="n">
+        <v>0.5861423656810953</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0.7399527186761229</v>
+      </c>
+      <c r="L618" t="n">
+        <v>0.8285693182657508</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -20109,11 +20279,21 @@
       <c r="G619" t="n">
         <v>0.0</v>
       </c>
-      <c r="H619"/>
-      <c r="I619"/>
-      <c r="J619"/>
-      <c r="K619"/>
-      <c r="L619"/>
+      <c r="H619" t="n">
+        <v>0.49350130809930975</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.3925141653334392</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0.540372168283071</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0.7238154613466334</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0.8352392416491122</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -20165,11 +20345,21 @@
       <c r="G621" t="n">
         <v>0.0</v>
       </c>
-      <c r="H621"/>
-      <c r="I621"/>
-      <c r="J621"/>
-      <c r="K621"/>
-      <c r="L621"/>
+      <c r="H621" t="n">
+        <v>0.3929579321024846</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.3276180797338138</v>
+      </c>
+      <c r="J621" t="n">
+        <v>0.9123407056321989</v>
+      </c>
+      <c r="K621" t="n">
+        <v>0.9633401221995926</v>
+      </c>
+      <c r="L621" t="n">
+        <v>0.7953026422637266</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
@@ -20193,11 +20383,21 @@
       <c r="G622" t="n">
         <v>0.0</v>
       </c>
-      <c r="H622"/>
-      <c r="I622"/>
-      <c r="J622"/>
-      <c r="K622"/>
-      <c r="L622"/>
+      <c r="H622" t="n">
+        <v>0.39081888883338844</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.3255608810195392</v>
+      </c>
+      <c r="J622" t="n">
+        <v>0.9248920645898275</v>
+      </c>
+      <c r="K622" t="n">
+        <v>0.9638095238095238</v>
+      </c>
+      <c r="L622" t="n">
+        <v>0.7969327073552426</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -20249,11 +20449,21 @@
       <c r="G624" t="n">
         <v>0.0</v>
       </c>
-      <c r="H624"/>
-      <c r="I624"/>
-      <c r="J624"/>
-      <c r="K624"/>
-      <c r="L624"/>
+      <c r="H624" t="n">
+        <v>0.5167676068138207</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.4205829469392376</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0.8844243231580867</v>
+      </c>
+      <c r="K624" t="n">
+        <v>0.9451303155006858</v>
+      </c>
+      <c r="L624" t="n">
+        <v>0.8059095808762919</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
@@ -20277,11 +20487,21 @@
       <c r="G625" t="n">
         <v>0.0</v>
       </c>
-      <c r="H625"/>
-      <c r="I625"/>
-      <c r="J625"/>
-      <c r="K625"/>
-      <c r="L625"/>
+      <c r="H625" t="n">
+        <v>0.5179632945197977</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.4223774590907704</v>
+      </c>
+      <c r="J625" t="n">
+        <v>0.8819629755320219</v>
+      </c>
+      <c r="K625" t="n">
+        <v>0.9407894736842105</v>
+      </c>
+      <c r="L625" t="n">
+        <v>0.8071791613722998</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -20333,11 +20553,21 @@
       <c r="G627" t="n">
         <v>0.0</v>
       </c>
-      <c r="H627"/>
-      <c r="I627"/>
-      <c r="J627"/>
-      <c r="K627"/>
-      <c r="L627"/>
+      <c r="H627" t="n">
+        <v>0.5418602944533498</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.4263936675085872</v>
+      </c>
+      <c r="J627" t="n">
+        <v>0.5861423656810953</v>
+      </c>
+      <c r="K627" t="n">
+        <v>0.7674810446503791</v>
+      </c>
+      <c r="L627" t="n">
+        <v>0.8635140874982302</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -20361,11 +20591,21 @@
       <c r="G628" t="n">
         <v>0.0</v>
       </c>
-      <c r="H628"/>
-      <c r="I628"/>
-      <c r="J628"/>
-      <c r="K628"/>
-      <c r="L628"/>
+      <c r="H628" t="n">
+        <v>0.5438910092497575</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.4281347906443249</v>
+      </c>
+      <c r="J628" t="n">
+        <v>0.5878746147889197</v>
+      </c>
+      <c r="K628" t="n">
+        <v>0.7302816901408451</v>
+      </c>
+      <c r="L628" t="n">
+        <v>0.8773060029282577</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
@@ -20417,11 +20657,21 @@
       <c r="G630" t="n">
         <v>0.0</v>
       </c>
-      <c r="H630"/>
-      <c r="I630"/>
-      <c r="J630"/>
-      <c r="K630"/>
-      <c r="L630"/>
+      <c r="H630" t="n">
+        <v>0.43445002942996563</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.30741873339957565</v>
+      </c>
+      <c r="J630" t="n">
+        <v>0.828018210055704</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0.8909090909090909</v>
+      </c>
+      <c r="L630" t="n">
+        <v>0.8842406876790831</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -20445,11 +20695,21 @@
       <c r="G631" t="n">
         <v>0.0</v>
       </c>
-      <c r="H631"/>
-      <c r="I631"/>
-      <c r="J631"/>
-      <c r="K631"/>
-      <c r="L631"/>
+      <c r="H631" t="n">
+        <v>0.446704531147796</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.3125357315394587</v>
+      </c>
+      <c r="J631" t="n">
+        <v>0.8308291261911909</v>
+      </c>
+      <c r="K631" t="n">
+        <v>0.8894472361809045</v>
+      </c>
+      <c r="L631" t="n">
+        <v>0.8892520669102095</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
@@ -20501,11 +20761,21 @@
       <c r="G633" t="n">
         <v>0.0</v>
       </c>
-      <c r="H633"/>
-      <c r="I633"/>
-      <c r="J633"/>
-      <c r="K633"/>
-      <c r="L633"/>
+      <c r="H633" t="n">
+        <v>0.5117645949022204</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.3522441977400258</v>
+      </c>
+      <c r="J633" t="n">
+        <v>0.733045202648451</v>
+      </c>
+      <c r="K633" t="n">
+        <v>0.8389513108614233</v>
+      </c>
+      <c r="L633" t="n">
+        <v>0.8969413598285603</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
@@ -20529,11 +20799,21 @@
       <c r="G634" t="n">
         <v>0.0</v>
       </c>
-      <c r="H634"/>
-      <c r="I634"/>
-      <c r="J634"/>
-      <c r="K634"/>
-      <c r="L634"/>
+      <c r="H634" t="n">
+        <v>0.5168421340123284</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.35383897393016095</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0.7290896809931678</v>
+      </c>
+      <c r="K634" t="n">
+        <v>0.8303249097472925</v>
+      </c>
+      <c r="L634" t="n">
+        <v>0.8979113800507516</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
@@ -20585,11 +20865,21 @@
       <c r="G636" t="n">
         <v>0.0</v>
       </c>
-      <c r="H636"/>
-      <c r="I636"/>
-      <c r="J636"/>
-      <c r="K636"/>
-      <c r="L636"/>
+      <c r="H636" t="n">
+        <v>0.43160108295277955</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.29063396977968703</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0.5280575399523143</v>
+      </c>
+      <c r="K636" t="n">
+        <v>0.5951972555746141</v>
+      </c>
+      <c r="L636" t="n">
+        <v>0.9157151754203862</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
@@ -20613,11 +20903,21 @@
       <c r="G637" t="n">
         <v>0.0</v>
       </c>
-      <c r="H637"/>
-      <c r="I637"/>
-      <c r="J637"/>
-      <c r="K637"/>
-      <c r="L637"/>
+      <c r="H637" t="n">
+        <v>0.4134759627671508</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0.2769494821753848</v>
+      </c>
+      <c r="J637" t="n">
+        <v>0.5081153680062789</v>
+      </c>
+      <c r="K637" t="n">
+        <v>0.5681470137825421</v>
+      </c>
+      <c r="L637" t="n">
+        <v>0.9195281230250685</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
@@ -20669,11 +20969,21 @@
       <c r="G639" t="n">
         <v>0.0</v>
       </c>
-      <c r="H639"/>
-      <c r="I639"/>
-      <c r="J639"/>
-      <c r="K639"/>
-      <c r="L639"/>
+      <c r="H639" t="n">
+        <v>0.43785391520307454</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.30889502730964874</v>
+      </c>
+      <c r="J639" t="n">
+        <v>0.828018210055704</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="L639" t="n">
+        <v>0.897803247373448</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
@@ -20697,11 +21007,21 @@
       <c r="G640" t="n">
         <v>0.0</v>
       </c>
-      <c r="H640"/>
-      <c r="I640"/>
-      <c r="J640"/>
-      <c r="K640"/>
-      <c r="L640"/>
+      <c r="H640" t="n">
+        <v>0.4503908164834533</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.3140403711042752</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0.8308291261911909</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0.8882978723404256</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0.9013814274750576</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -20753,11 +21073,21 @@
       <c r="G642" t="n">
         <v>0.0</v>
       </c>
-      <c r="H642"/>
-      <c r="I642"/>
-      <c r="J642"/>
-      <c r="K642"/>
-      <c r="L642"/>
+      <c r="H642" t="n">
+        <v>0.5162265243855738</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.3539531736819643</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0.733045202648451</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0.8345864661654135</v>
+      </c>
+      <c r="L642" t="n">
+        <v>0.9105960264900662</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
@@ -20781,11 +21111,21 @@
       <c r="G643" t="n">
         <v>0.0</v>
       </c>
-      <c r="H643"/>
-      <c r="I643"/>
-      <c r="J643"/>
-      <c r="K643"/>
-      <c r="L643"/>
+      <c r="H643" t="n">
+        <v>0.5214534842747636</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.355558188471215</v>
+      </c>
+      <c r="J643" t="n">
+        <v>0.7290896809931678</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0.9105058365758755</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
@@ -20837,11 +21177,21 @@
       <c r="G645" t="n">
         <v>0.0</v>
       </c>
-      <c r="H645"/>
-      <c r="I645"/>
-      <c r="J645"/>
-      <c r="K645"/>
-      <c r="L645"/>
+      <c r="H645" t="n">
+        <v>0.4356066086437315</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.2920400533087781</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0.5280575399523143</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0.6203007518796992</v>
+      </c>
+      <c r="L645" t="n">
+        <v>0.9278964667214462</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
@@ -20865,11 +21215,21 @@
       <c r="G646" t="n">
         <v>0.0</v>
       </c>
-      <c r="H646"/>
-      <c r="I646"/>
-      <c r="J646"/>
-      <c r="K646"/>
-      <c r="L646"/>
+      <c r="H646" t="n">
+        <v>0.4173819763979137</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0.2782908341552996</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0.5081153680062789</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0.5971731448763251</v>
+      </c>
+      <c r="L646" t="n">
+        <v>0.9290442697558957</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
@@ -20921,11 +21281,21 @@
       <c r="G648" t="n">
         <v>0.0</v>
       </c>
-      <c r="H648"/>
-      <c r="I648"/>
-      <c r="J648"/>
-      <c r="K648"/>
-      <c r="L648"/>
+      <c r="H648" t="n">
+        <v>0.454892789255641</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.31036909929810197</v>
+      </c>
+      <c r="J648" t="n">
+        <v>0.828018210055704</v>
+      </c>
+      <c r="K648" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="L648" t="n">
+        <v>0.9021967526265521</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="s">
@@ -20949,11 +21319,21 @@
       <c r="G649" t="n">
         <v>0.0</v>
       </c>
-      <c r="H649"/>
-      <c r="I649"/>
-      <c r="J649"/>
-      <c r="K649"/>
-      <c r="L649"/>
+      <c r="H649" t="n">
+        <v>0.4681372043233213</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.3155437486279438</v>
+      </c>
+      <c r="J649" t="n">
+        <v>0.8308291261911909</v>
+      </c>
+      <c r="K649" t="n">
+        <v>0.88268156424581</v>
+      </c>
+      <c r="L649" t="n">
+        <v>0.9042329055736449</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="s">
@@ -21005,11 +21385,21 @@
       <c r="G651" t="n">
         <v>0.0</v>
       </c>
-      <c r="H651"/>
-      <c r="I651"/>
-      <c r="J651"/>
-      <c r="K651"/>
-      <c r="L651"/>
+      <c r="H651" t="n">
+        <v>0.5368380738132266</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.3556543493117752</v>
+      </c>
+      <c r="J651" t="n">
+        <v>0.733045202648451</v>
+      </c>
+      <c r="K651" t="n">
+        <v>0.8435114503816794</v>
+      </c>
+      <c r="L651" t="n">
+        <v>0.9149474503697937</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
@@ -21033,11 +21423,21 @@
       <c r="G652" t="n">
         <v>0.0</v>
       </c>
-      <c r="H652"/>
-      <c r="I652"/>
-      <c r="J652"/>
-      <c r="K652"/>
-      <c r="L652"/>
+      <c r="H652" t="n">
+        <v>0.5423956433481129</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.3572692590664213</v>
+      </c>
+      <c r="J652" t="n">
+        <v>0.7290896809931678</v>
+      </c>
+      <c r="K652" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L652" t="n">
+        <v>0.9149805447470817</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
@@ -21089,11 +21489,21 @@
       <c r="G654" t="n">
         <v>0.0</v>
       </c>
-      <c r="H654"/>
-      <c r="I654"/>
-      <c r="J654"/>
-      <c r="K654"/>
-      <c r="L654"/>
+      <c r="H654" t="n">
+        <v>0.453299574190362</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.29344521206585483</v>
+      </c>
+      <c r="J654" t="n">
+        <v>0.5280575399523143</v>
+      </c>
+      <c r="K654" t="n">
+        <v>0.642570281124498</v>
+      </c>
+      <c r="L654" t="n">
+        <v>0.9310485516115871</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
@@ -21117,11 +21527,21 @@
       <c r="G655" t="n">
         <v>0.0</v>
       </c>
-      <c r="H655"/>
-      <c r="I655"/>
-      <c r="J655"/>
-      <c r="K655"/>
-      <c r="L655"/>
+      <c r="H655" t="n">
+        <v>0.4344188358897779</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0.2796335746330619</v>
+      </c>
+      <c r="J655" t="n">
+        <v>0.5081153680062789</v>
+      </c>
+      <c r="K655" t="n">
+        <v>0.6182495344506518</v>
+      </c>
+      <c r="L655" t="n">
+        <v>0.9329631914456097</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
@@ -21173,11 +21593,21 @@
       <c r="G657" t="n">
         <v>0.0</v>
       </c>
-      <c r="H657"/>
-      <c r="I657"/>
-      <c r="J657"/>
-      <c r="K657"/>
-      <c r="L657"/>
+      <c r="H657" t="n">
+        <v>0.46175600473454226</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.31327337239877606</v>
+      </c>
+      <c r="J657" t="n">
+        <v>0.828018210055704</v>
+      </c>
+      <c r="K657" t="n">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="L657" t="n">
+        <v>0.9149017363098645</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="s">
@@ -21201,11 +21631,21 @@
       <c r="G658" t="n">
         <v>0.0</v>
       </c>
-      <c r="H658"/>
-      <c r="I658"/>
-      <c r="J658"/>
-      <c r="K658"/>
-      <c r="L658"/>
+      <c r="H658" t="n">
+        <v>0.46027963150212203</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0.31237545163086405</v>
+      </c>
+      <c r="J658" t="n">
+        <v>0.8281075015977591</v>
+      </c>
+      <c r="K658" t="n">
+        <v>0.8881987577639752</v>
+      </c>
+      <c r="L658" t="n">
+        <v>0.9152510020996374</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
@@ -21257,11 +21697,21 @@
       <c r="G660" t="n">
         <v>0.0</v>
       </c>
-      <c r="H660"/>
-      <c r="I660"/>
-      <c r="J660"/>
-      <c r="K660"/>
-      <c r="L660"/>
+      <c r="H660" t="n">
+        <v>0.5459411712078307</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.3590445874609075</v>
+      </c>
+      <c r="J660" t="n">
+        <v>0.733045202648451</v>
+      </c>
+      <c r="K660" t="n">
+        <v>0.848605577689243</v>
+      </c>
+      <c r="L660" t="n">
+        <v>0.9273645368032628</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
@@ -21285,11 +21735,21 @@
       <c r="G661" t="n">
         <v>0.0</v>
       </c>
-      <c r="H661"/>
-      <c r="I661"/>
-      <c r="J661"/>
-      <c r="K661"/>
-      <c r="L661"/>
+      <c r="H661" t="n">
+        <v>0.5431879160883067</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.35749843186536034</v>
+      </c>
+      <c r="J661" t="n">
+        <v>0.7265112051562631</v>
+      </c>
+      <c r="K661" t="n">
+        <v>0.8443579766536965</v>
+      </c>
+      <c r="L661" t="n">
+        <v>0.9280575539568345</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
@@ -21341,11 +21801,21 @@
       <c r="G663" t="n">
         <v>0.0</v>
       </c>
-      <c r="H663"/>
-      <c r="I663"/>
-      <c r="J663"/>
-      <c r="K663"/>
-      <c r="L663"/>
+      <c r="H663" t="n">
+        <v>0.461540377220559</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.2962473185622385</v>
+      </c>
+      <c r="J663" t="n">
+        <v>0.5280575399523143</v>
+      </c>
+      <c r="K663" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="L663" t="n">
+        <v>0.9366</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="s">
@@ -21369,11 +21839,21 @@
       <c r="G664" t="n">
         <v>0.0</v>
       </c>
-      <c r="H664"/>
-      <c r="I664"/>
-      <c r="J664"/>
-      <c r="K664"/>
-      <c r="L664"/>
+      <c r="H664" t="n">
+        <v>0.461540377220559</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.2962473185622385</v>
+      </c>
+      <c r="J664" t="n">
+        <v>0.5280575399523143</v>
+      </c>
+      <c r="K664" t="n">
+        <v>0.627906976744186</v>
+      </c>
+      <c r="L664" t="n">
+        <v>0.941140653541709</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
